--- a/Eta/Experimental/Jaime/Data_Jaime.xlsx
+++ b/Eta/Experimental/Jaime/Data_Jaime.xlsx
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,16 +753,16 @@
         <v>0.5</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U26" si="7">E2/3600/1000/(PI()*H2^2/4)/0.37</f>
-        <v>0.8802925546389383</v>
+        <f>E2/4/3600/1000/(PI()*H2^2/4)/0.37</f>
+        <v>0.22007313865973457</v>
       </c>
       <c r="V2" s="1">
-        <f>0.75*U2*K2*M2*7900</f>
-        <v>1.9242071954428612</v>
+        <f>0.75*U2*L2*R2*1000/2</f>
+        <v>164.31726511601167</v>
       </c>
       <c r="W2" s="1">
         <f>(1-0.36)*S2+0.36*(V2+T2)</f>
-        <v>6.6327145903594298</v>
+        <v>65.094215441764206</v>
       </c>
       <c r="X2" s="1">
         <f>[1]!HeatTransferArea(H2,I2,0.36,L2)</f>
@@ -773,75 +773,75 @@
         <v>19752.723070649943</v>
       </c>
       <c r="Z2" s="1">
-        <f t="shared" ref="Z2:Z26" si="8">U2*L2/(2.1*10^-6)</f>
-        <v>214.83330202497896</v>
+        <f t="shared" ref="Z2:Z26" si="7">U2*L2/(2.1*10^-6)</f>
+        <v>53.708325506244741</v>
       </c>
       <c r="AA2" s="1">
-        <f t="shared" ref="AA2:AA26" si="9">0.17*Z2^0.79*T2/L2</f>
-        <v>11536.79891224789</v>
+        <f t="shared" ref="AA2:AA26" si="8">0.17*Z2^0.79*T2/L2</f>
+        <v>3858.8502896807245</v>
       </c>
       <c r="AB2" s="1">
-        <f t="shared" ref="AB2:AB26" si="10">(1/AA2+1.6/1000/0.3+0.8/1000/0.02)^-1</f>
-        <v>22.016726662521915</v>
+        <f t="shared" ref="AB2:AB26" si="9">(1/AA2+1.6/1000/0.3+0.8/1000/0.02)^-1</f>
+        <v>21.933442676290149</v>
       </c>
       <c r="AC2" s="1">
-        <f t="shared" ref="AC2:AC26" si="11">R2*M2/(2*B2*N2*K2)</f>
+        <f t="shared" ref="AC2:AC26" si="10">R2*M2/(2*B2*N2*K2)</f>
         <v>0.35491465853926657</v>
       </c>
       <c r="AD2" s="1">
-        <f t="shared" ref="AD2:AD26" si="12">Y2*X2/(M2*R2)</f>
+        <f t="shared" ref="AD2:AD26" si="11">Y2*X2/(M2*R2)</f>
         <v>149.71127998202286</v>
       </c>
       <c r="AE2" s="1">
-        <f t="shared" ref="AE2:AE26" si="13">M2*R2</f>
+        <f t="shared" ref="AE2:AE26" si="12">M2*R2</f>
         <v>13.489583333333332</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF26" si="14">K2*O2*B2*0.5</f>
+        <f t="shared" ref="AF2:AF26" si="13">K2*O2*B2*0.5</f>
         <v>11.103547902618089</v>
       </c>
       <c r="AG2" s="1">
         <v>0.82030000000000003</v>
       </c>
       <c r="AH2" s="1">
-        <f t="shared" ref="AH2:AH26" si="15">D2*R2/(2*B2*K2*N2)</f>
+        <f t="shared" ref="AH2:AH26" si="14">D2*R2/(2*B2*K2*N2)</f>
         <v>0.35491465853926657</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" ref="AI2:AI26" si="16">F2/16</f>
+        <f t="shared" ref="AI2:AI26" si="15">F2/16</f>
         <v>2.6002240052083319</v>
       </c>
       <c r="AJ2" s="1">
-        <f t="shared" ref="AJ2:AJ26" si="17">K2*B2*N2*Q2</f>
+        <f t="shared" ref="AJ2:AJ26" si="16">K2*B2*N2*Q2</f>
         <v>37.748039775246859</v>
       </c>
       <c r="AK2" s="1">
-        <f t="shared" ref="AK2:AK26" si="18">B2*K2*O2*P2</f>
+        <f t="shared" ref="AK2:AK26" si="17">B2*K2*O2*P2</f>
         <v>39.468884745262947</v>
       </c>
       <c r="AL2" s="1">
-        <f t="shared" ref="AL2:AL26" si="19">D2*R2*A2*0.25</f>
+        <f t="shared" ref="AL2:AL26" si="18">D2*R2*A2*0.25</f>
         <v>30.357493279622709</v>
       </c>
       <c r="AM2" s="1">
-        <f t="shared" ref="AM2:AM26" si="20">D2*R2*A2*AG2*0.25</f>
+        <f t="shared" ref="AM2:AM26" si="19">D2*R2*A2*AG2*0.25</f>
         <v>24.902251737274508</v>
       </c>
       <c r="AN2" s="1">
-        <f t="shared" ref="AN2:AN26" si="21">D2*R2*P2</f>
+        <f t="shared" ref="AN2:AN26" si="20">D2*R2*P2</f>
         <v>23.975166069190145</v>
       </c>
       <c r="AO2" s="1">
-        <f t="shared" ref="AO2:AO26" si="22">AB2*(PI()*H2*I2)*(A2/2)*0.5</f>
-        <v>0.18351197656809559</v>
+        <f t="shared" ref="AO2:AO26" si="21">AB2*(PI()*H2*I2)*(A2/2)*0.5</f>
+        <v>0.18281779485960947</v>
       </c>
       <c r="AP2" s="1">
-        <f t="shared" ref="AP2:AP26" si="23">G2/16*0.5</f>
+        <f t="shared" ref="AP2:AP26" si="22">G2/16*0.5</f>
         <v>0.875</v>
       </c>
       <c r="AQ2" s="1">
         <f>W2*(10*28)*10^-6*A2/I2</f>
-        <v>0.20897133519826183</v>
+        <v>2.0508684535168031</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -913,16 +913,16 @@
         <v>0.5</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="7"/>
-        <v>0.66021941597920375</v>
+        <f t="shared" ref="U3:U26" si="23">E3/4/3600/1000/(PI()*H3^2/4)/0.37</f>
+        <v>0.16505485399480094</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V26" si="24">0.75*U3*K3*M3*7900</f>
-        <v>1.0823665474366095</v>
+        <f t="shared" ref="V3:V26" si="24">0.75*U3*L3*R3*1000</f>
+        <v>246.47589767401752</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" ref="W3:W26" si="25">(1-0.36)*S3+0.36*(V3+T3)</f>
-        <v>6.3296519570771794</v>
+        <v>94.671323162646303</v>
       </c>
       <c r="X3" s="1">
         <f>[1]!HeatTransferArea(H3,I3,0.36,L3)</f>
@@ -933,75 +933,75 @@
         <v>19632.102250269269</v>
       </c>
       <c r="Z3" s="1">
+        <f t="shared" si="7"/>
+        <v>40.281244129683564</v>
+      </c>
+      <c r="AA3" s="1">
         <f t="shared" si="8"/>
-        <v>161.12497651873426</v>
-      </c>
-      <c r="AA3" s="1">
+        <v>3074.3713749795356</v>
+      </c>
+      <c r="AB3" s="1">
         <f t="shared" si="9"/>
-        <v>9191.4434798258389</v>
-      </c>
-      <c r="AB3" s="1">
+        <v>21.901677505020178</v>
+      </c>
+      <c r="AC3" s="1">
         <f t="shared" si="10"/>
-        <v>22.006010638126707</v>
-      </c>
-      <c r="AC3" s="1">
+        <v>0.26639826077535655</v>
+      </c>
+      <c r="AD3" s="1">
         <f t="shared" si="11"/>
-        <v>0.26639826077535655</v>
-      </c>
-      <c r="AD3" s="1">
+        <v>198.39608247856998</v>
+      </c>
+      <c r="AE3" s="1">
         <f t="shared" si="12"/>
-        <v>198.39608247856998</v>
-      </c>
-      <c r="AE3" s="1">
+        <v>10.1171875</v>
+      </c>
+      <c r="AF3" s="1">
         <f t="shared" si="13"/>
-        <v>10.1171875</v>
-      </c>
-      <c r="AF3" s="1">
-        <f t="shared" si="14"/>
         <v>11.096554796094694</v>
       </c>
       <c r="AG3" s="1">
         <v>0.95789999999999997</v>
       </c>
       <c r="AH3" s="1">
+        <f t="shared" si="14"/>
+        <v>0.26639826077535655</v>
+      </c>
+      <c r="AI3" s="1">
         <f t="shared" si="15"/>
-        <v>0.26639826077535655</v>
-      </c>
-      <c r="AI3" s="1">
+        <v>1.3002085307459688</v>
+      </c>
+      <c r="AJ3" s="1">
         <f t="shared" si="16"/>
-        <v>1.3002085307459688</v>
-      </c>
-      <c r="AJ3" s="1">
+        <v>37.6576801051622</v>
+      </c>
+      <c r="AK3" s="1">
         <f t="shared" si="17"/>
-        <v>37.6576801051622</v>
-      </c>
-      <c r="AK3" s="1">
+        <v>39.360978099419029</v>
+      </c>
+      <c r="AL3" s="1">
         <f t="shared" si="18"/>
-        <v>39.360978099419029</v>
-      </c>
-      <c r="AL3" s="1">
+        <v>22.51084835677608</v>
+      </c>
+      <c r="AM3" s="1">
         <f t="shared" si="19"/>
-        <v>22.51084835677608</v>
-      </c>
-      <c r="AM3" s="1">
+        <v>21.563141640955806</v>
+      </c>
+      <c r="AN3" s="1">
         <f t="shared" si="20"/>
-        <v>21.563141640955806</v>
-      </c>
-      <c r="AN3" s="1">
+        <v>17.943515033844818</v>
+      </c>
+      <c r="AO3" s="1">
         <f t="shared" si="21"/>
-        <v>17.943515033844818</v>
-      </c>
-      <c r="AO3" s="1">
+        <v>0.18049024460911564</v>
+      </c>
+      <c r="AP3" s="1">
         <f t="shared" si="22"/>
-        <v>0.18135004691014564</v>
-      </c>
-      <c r="AP3" s="1">
-        <f t="shared" si="23"/>
         <v>0.46</v>
       </c>
       <c r="AQ3" s="1">
         <f t="shared" ref="AQ3:AQ26" si="26">W3*(10*28)*10^-6*A3/I3</f>
-        <v>0.19716958838581319</v>
+        <v>2.9490256251844134</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -1073,16 +1073,16 @@
         <v>0.5</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="7"/>
-        <v>0.77025598530907113</v>
+        <f t="shared" si="23"/>
+        <v>0.19256399632726778</v>
       </c>
       <c r="V4" s="1">
         <f t="shared" si="24"/>
-        <v>1.4732211340109409</v>
+        <v>287.55521395302043</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="25"/>
-        <v>6.470359608243939</v>
+        <v>109.45987702308736</v>
       </c>
       <c r="X4" s="1">
         <f>[1]!HeatTransferArea(H4,I4,0.36,L4)</f>
@@ -1093,75 +1093,75 @@
         <v>19694.142440547083</v>
       </c>
       <c r="Z4" s="1">
+        <f t="shared" si="7"/>
+        <v>46.99478481796416</v>
+      </c>
+      <c r="AA4" s="1">
         <f t="shared" si="8"/>
-        <v>187.97913927185664</v>
-      </c>
-      <c r="AA4" s="1">
+        <v>3472.5162891045738</v>
+      </c>
+      <c r="AB4" s="1">
         <f t="shared" si="9"/>
-        <v>10381.776731281119</v>
-      </c>
-      <c r="AB4" s="1">
+        <v>21.919581510047937</v>
+      </c>
+      <c r="AC4" s="1">
         <f t="shared" si="10"/>
-        <v>22.01205311546796</v>
-      </c>
-      <c r="AC4" s="1">
+        <v>0.31408220118586549</v>
+      </c>
+      <c r="AD4" s="1">
         <f t="shared" si="11"/>
-        <v>0.31408220118586549</v>
-      </c>
-      <c r="AD4" s="1">
+        <v>170.59117873820571</v>
+      </c>
+      <c r="AE4" s="1">
         <f t="shared" si="12"/>
-        <v>170.59117873820571</v>
-      </c>
-      <c r="AE4" s="1">
+        <v>11.803385416666666</v>
+      </c>
+      <c r="AF4" s="1">
         <f t="shared" si="13"/>
-        <v>11.803385416666666</v>
-      </c>
-      <c r="AF4" s="1">
-        <f t="shared" si="14"/>
         <v>10.984411843730989</v>
       </c>
       <c r="AG4" s="1">
         <v>0.90139999999999998</v>
       </c>
       <c r="AH4" s="1">
+        <f t="shared" si="14"/>
+        <v>0.31408220118586549</v>
+      </c>
+      <c r="AI4" s="1">
         <f t="shared" si="15"/>
-        <v>0.31408220118586549</v>
-      </c>
-      <c r="AI4" s="1">
+        <v>2.4960016015624982</v>
+      </c>
+      <c r="AJ4" s="1">
         <f t="shared" si="16"/>
-        <v>2.4960016015624982</v>
-      </c>
-      <c r="AJ4" s="1">
+        <v>36.909494485633275</v>
+      </c>
+      <c r="AK4" s="1">
         <f t="shared" si="17"/>
-        <v>36.909494485633275</v>
-      </c>
-      <c r="AK4" s="1">
+        <v>38.375547931566146</v>
+      </c>
+      <c r="AL4" s="1">
         <f t="shared" si="18"/>
-        <v>38.375547931566146</v>
-      </c>
-      <c r="AL4" s="1">
+        <v>25.5724637611393</v>
+      </c>
+      <c r="AM4" s="1">
         <f t="shared" si="19"/>
-        <v>25.5724637611393</v>
-      </c>
-      <c r="AM4" s="1">
+        <v>23.051018834290964</v>
+      </c>
+      <c r="AN4" s="1">
         <f t="shared" si="20"/>
-        <v>23.051018834290964</v>
-      </c>
-      <c r="AN4" s="1">
+        <v>20.618372164848953</v>
+      </c>
+      <c r="AO4" s="1">
         <f t="shared" si="21"/>
-        <v>20.618372164848953</v>
-      </c>
-      <c r="AO4" s="1">
+        <v>0.17589056008853754</v>
+      </c>
+      <c r="AP4" s="1">
         <f t="shared" si="22"/>
-        <v>0.17663258531662679</v>
-      </c>
-      <c r="AP4" s="1">
-        <f t="shared" si="23"/>
         <v>0.65</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" si="26"/>
-        <v>0.19625577160058477</v>
+        <v>3.3200832604575119</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -1233,16 +1233,16 @@
         <v>0.5</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="7"/>
-        <v>0.66021941597920375</v>
+        <f t="shared" si="23"/>
+        <v>0.16505485399480094</v>
       </c>
       <c r="V5" s="1">
         <f t="shared" si="24"/>
-        <v>1.0823665474366095</v>
+        <v>246.47589767401752</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="25"/>
-        <v>6.3296519570771794</v>
+        <v>94.671323162646303</v>
       </c>
       <c r="X5" s="1">
         <f>[1]!HeatTransferArea(H5,I5,0.36,L5)</f>
@@ -1253,75 +1253,75 @@
         <v>19632.102250269269</v>
       </c>
       <c r="Z5" s="1">
+        <f t="shared" si="7"/>
+        <v>40.281244129683564</v>
+      </c>
+      <c r="AA5" s="1">
         <f t="shared" si="8"/>
-        <v>161.12497651873426</v>
-      </c>
-      <c r="AA5" s="1">
+        <v>3074.3713749795356</v>
+      </c>
+      <c r="AB5" s="1">
         <f t="shared" si="9"/>
-        <v>9191.4434798258389</v>
-      </c>
-      <c r="AB5" s="1">
+        <v>21.901677505020178</v>
+      </c>
+      <c r="AC5" s="1">
         <f t="shared" si="10"/>
-        <v>22.006010638126707</v>
-      </c>
-      <c r="AC5" s="1">
+        <v>0.53819174644730372</v>
+      </c>
+      <c r="AD5" s="1">
         <f t="shared" si="11"/>
-        <v>0.53819174644730372</v>
-      </c>
-      <c r="AD5" s="1">
+        <v>198.39608247856998</v>
+      </c>
+      <c r="AE5" s="1">
         <f t="shared" si="12"/>
-        <v>198.39608247856998</v>
-      </c>
-      <c r="AE5" s="1">
+        <v>10.1171875</v>
+      </c>
+      <c r="AF5" s="1">
         <f t="shared" si="13"/>
-        <v>10.1171875</v>
-      </c>
-      <c r="AF5" s="1">
-        <f t="shared" si="14"/>
         <v>5.4957605518140902</v>
       </c>
       <c r="AG5" s="1">
         <v>0.54359999999999997</v>
       </c>
       <c r="AH5" s="1">
+        <f t="shared" si="14"/>
+        <v>0.53819174644730372</v>
+      </c>
+      <c r="AI5" s="1">
         <f t="shared" si="15"/>
-        <v>0.53819174644730372</v>
-      </c>
-      <c r="AI5" s="1">
+        <v>1.2942054662698437</v>
+      </c>
+      <c r="AJ5" s="1">
         <f t="shared" si="16"/>
-        <v>1.2942054662698437</v>
-      </c>
-      <c r="AJ5" s="1">
+        <v>18.314457718801012</v>
+      </c>
+      <c r="AK5" s="1">
         <f t="shared" si="17"/>
-        <v>18.314457718801012</v>
-      </c>
-      <c r="AK5" s="1">
+        <v>19.060769868770379</v>
+      </c>
+      <c r="AL5" s="1">
         <f t="shared" si="18"/>
-        <v>19.060769868770379</v>
-      </c>
-      <c r="AL5" s="1">
+        <v>20.54518222656251</v>
+      </c>
+      <c r="AM5" s="1">
         <f t="shared" si="19"/>
-        <v>20.54518222656251</v>
-      </c>
-      <c r="AM5" s="1">
+        <v>11.16836105835938</v>
+      </c>
+      <c r="AN5" s="1">
         <f t="shared" si="20"/>
-        <v>11.16836105835938</v>
-      </c>
-      <c r="AN5" s="1">
+        <v>17.54455828620895</v>
+      </c>
+      <c r="AO5" s="1">
         <f t="shared" si="21"/>
-        <v>17.54455828620895</v>
-      </c>
-      <c r="AO5" s="1">
+        <v>0.16472968529837306</v>
+      </c>
+      <c r="AP5" s="1">
         <f t="shared" si="22"/>
-        <v>0.16551440894243605</v>
-      </c>
-      <c r="AP5" s="1">
-        <f t="shared" si="23"/>
         <v>0.45</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" si="26"/>
-        <v>0.17995257480838039</v>
+        <v>2.6915142379331201</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -1393,16 +1393,16 @@
         <v>0.5</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="7"/>
-        <v>0.55018284664933648</v>
+        <f t="shared" si="23"/>
+        <v>0.13754571166233412</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="24"/>
-        <v>0.75164343571986791</v>
+        <v>205.39658139501461</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="25"/>
-        <v>6.2105916368591521</v>
+        <v>79.882769302205261</v>
       </c>
       <c r="X6" s="1">
         <f>[1]!HeatTransferArea(H6,I6,0.36,L6)</f>
@@ -1413,75 +1413,75 @@
         <v>19565.76017933507</v>
       </c>
       <c r="Z6" s="1">
+        <f t="shared" si="7"/>
+        <v>33.567703441402969</v>
+      </c>
+      <c r="AA6" s="1">
         <f t="shared" si="8"/>
-        <v>134.27081376561188</v>
-      </c>
-      <c r="AA6" s="1">
+        <v>2661.9699185544869</v>
+      </c>
+      <c r="AB6" s="1">
         <f t="shared" si="9"/>
-        <v>7958.4874652799681</v>
-      </c>
-      <c r="AB6" s="1">
+        <v>21.87753199259911</v>
+      </c>
+      <c r="AC6" s="1">
         <f t="shared" si="10"/>
-        <v>21.997851300457459</v>
-      </c>
-      <c r="AC6" s="1">
+        <v>0.44976408244182497</v>
+      </c>
+      <c r="AD6" s="1">
         <f t="shared" si="11"/>
-        <v>0.44976408244182497</v>
-      </c>
-      <c r="AD6" s="1">
+        <v>237.27077951065817</v>
+      </c>
+      <c r="AE6" s="1">
         <f t="shared" si="12"/>
-        <v>237.27077951065817</v>
-      </c>
-      <c r="AE6" s="1">
+        <v>8.4309895833333339</v>
+      </c>
+      <c r="AF6" s="1">
         <f t="shared" si="13"/>
-        <v>8.4309895833333339</v>
-      </c>
-      <c r="AF6" s="1">
-        <f t="shared" si="14"/>
         <v>5.4752625614367894</v>
       </c>
       <c r="AG6" s="1">
         <v>0.65010000000000001</v>
       </c>
       <c r="AH6" s="1">
+        <f t="shared" si="14"/>
+        <v>0.44976408244182497</v>
+      </c>
+      <c r="AI6" s="1">
         <f t="shared" si="15"/>
-        <v>0.44976408244182497</v>
-      </c>
-      <c r="AI6" s="1">
+        <v>1.2824786944980688</v>
+      </c>
+      <c r="AJ6" s="1">
         <f t="shared" si="16"/>
-        <v>1.2824786944980688</v>
-      </c>
-      <c r="AJ6" s="1">
+        <v>18.035203310508255</v>
+      </c>
+      <c r="AK6" s="1">
         <f t="shared" si="17"/>
-        <v>18.035203310508255</v>
-      </c>
-      <c r="AK6" s="1">
+        <v>18.626525588283585</v>
+      </c>
+      <c r="AL6" s="1">
         <f t="shared" si="18"/>
-        <v>18.626525588283585</v>
-      </c>
-      <c r="AL6" s="1">
+        <v>15.580720703125008</v>
+      </c>
+      <c r="AM6" s="1">
         <f t="shared" si="19"/>
-        <v>15.580720703125008</v>
-      </c>
-      <c r="AM6" s="1">
+        <v>10.129026529101568</v>
+      </c>
+      <c r="AN6" s="1">
         <f t="shared" si="20"/>
-        <v>10.129026529101568</v>
-      </c>
-      <c r="AN6" s="1">
+        <v>14.340868720577035</v>
+      </c>
+      <c r="AO6" s="1">
         <f t="shared" si="21"/>
-        <v>14.340868720577035</v>
-      </c>
-      <c r="AO6" s="1">
+        <v>0.14974475083085673</v>
+      </c>
+      <c r="AP6" s="1">
         <f t="shared" si="22"/>
-        <v>0.15056829823928858</v>
-      </c>
-      <c r="AP6" s="1">
-        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="26"/>
-        <v>0.16068302520607786</v>
+        <v>2.0667604286101362</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -1553,16 +1553,16 @@
         <v>0.5</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="7"/>
-        <v>0.66021941597920375</v>
+        <f t="shared" si="23"/>
+        <v>0.16505485399480094</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="24"/>
-        <v>1.0823665474366095</v>
+        <v>246.47589767401752</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="25"/>
-        <v>6.3296519570771794</v>
+        <v>94.671323162646303</v>
       </c>
       <c r="X7" s="1">
         <f>[1]!HeatTransferArea(H7,I7,0.36,L7)</f>
@@ -1573,75 +1573,75 @@
         <v>19632.102250269269</v>
       </c>
       <c r="Z7" s="1">
+        <f t="shared" si="7"/>
+        <v>40.281244129683564</v>
+      </c>
+      <c r="AA7" s="1">
         <f t="shared" si="8"/>
-        <v>161.12497651873426</v>
-      </c>
-      <c r="AA7" s="1">
+        <v>3074.3713749795356</v>
+      </c>
+      <c r="AB7" s="1">
         <f t="shared" si="9"/>
-        <v>9191.4434798258389</v>
-      </c>
-      <c r="AB7" s="1">
+        <v>21.901677505020178</v>
+      </c>
+      <c r="AC7" s="1">
         <f t="shared" si="10"/>
-        <v>22.006010638126707</v>
-      </c>
-      <c r="AC7" s="1">
+        <v>0.27000794089934621</v>
+      </c>
+      <c r="AD7" s="1">
         <f t="shared" si="11"/>
-        <v>0.27000794089934621</v>
-      </c>
-      <c r="AD7" s="1">
+        <v>198.39608247856998</v>
+      </c>
+      <c r="AE7" s="1">
         <f t="shared" si="12"/>
-        <v>198.39608247856998</v>
-      </c>
-      <c r="AE7" s="1">
+        <v>10.1171875</v>
+      </c>
+      <c r="AF7" s="1">
         <f t="shared" si="13"/>
-        <v>10.1171875</v>
-      </c>
-      <c r="AF7" s="1">
-        <f t="shared" si="14"/>
         <v>10.942911026461141</v>
       </c>
       <c r="AG7" s="1">
         <v>0.95509999999999995</v>
       </c>
       <c r="AH7" s="1">
+        <f t="shared" si="14"/>
+        <v>0.27000794089934621</v>
+      </c>
+      <c r="AI7" s="1">
         <f t="shared" si="15"/>
-        <v>0.27000794089934621</v>
-      </c>
-      <c r="AI7" s="1">
+        <v>2.6748013963700248</v>
+      </c>
+      <c r="AJ7" s="1">
         <f t="shared" si="16"/>
-        <v>2.6748013963700248</v>
-      </c>
-      <c r="AJ7" s="1">
+        <v>35.962819975374977</v>
+      </c>
+      <c r="AK7" s="1">
         <f t="shared" si="17"/>
-        <v>35.962819975374977</v>
-      </c>
-      <c r="AK7" s="1">
+        <v>37.134164189137245</v>
+      </c>
+      <c r="AL7" s="1">
         <f t="shared" si="18"/>
-        <v>37.134164189137245</v>
-      </c>
-      <c r="AL7" s="1">
+        <v>18.441134080430345</v>
+      </c>
+      <c r="AM7" s="1">
         <f t="shared" si="19"/>
-        <v>18.441134080430345</v>
-      </c>
-      <c r="AM7" s="1">
+        <v>17.613127160219022</v>
+      </c>
+      <c r="AN7" s="1">
         <f t="shared" si="20"/>
-        <v>17.613127160219022</v>
-      </c>
-      <c r="AN7" s="1">
+        <v>17.16605850348321</v>
+      </c>
+      <c r="AO7" s="1">
         <f t="shared" si="21"/>
-        <v>17.16605850348321</v>
-      </c>
-      <c r="AO7" s="1">
+        <v>0.14785958966510757</v>
+      </c>
+      <c r="AP7" s="1">
         <f t="shared" si="22"/>
-        <v>0.14856394914835128</v>
-      </c>
-      <c r="AP7" s="1">
-        <f t="shared" si="23"/>
         <v>0.46</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="26"/>
-        <v>0.16152349117982248</v>
+        <v>2.4158741642573651</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -1713,16 +1713,16 @@
         <v>0.5</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="7"/>
-        <v>0.8802925546389383</v>
+        <f t="shared" si="23"/>
+        <v>0.22007313865973457</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="24"/>
-        <v>1.9242071954428612</v>
+        <v>328.63453023202334</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="25"/>
-        <v>6.6327145903594298</v>
+        <v>124.2484308835284</v>
       </c>
       <c r="X8" s="1">
         <f>[1]!HeatTransferArea(H8,I8,0.36,L8)</f>
@@ -1733,75 +1733,75 @@
         <v>19752.723070649943</v>
       </c>
       <c r="Z8" s="1">
+        <f t="shared" si="7"/>
+        <v>53.708325506244741</v>
+      </c>
+      <c r="AA8" s="1">
         <f t="shared" si="8"/>
-        <v>214.83330202497896</v>
-      </c>
-      <c r="AA8" s="1">
+        <v>3858.8502896807245</v>
+      </c>
+      <c r="AB8" s="1">
         <f t="shared" si="9"/>
-        <v>11536.79891224789</v>
-      </c>
-      <c r="AB8" s="1">
+        <v>21.933442676290149</v>
+      </c>
+      <c r="AC8" s="1">
         <f t="shared" si="10"/>
-        <v>22.016726662521915</v>
-      </c>
-      <c r="AC8" s="1">
+        <v>0.36166357186649728</v>
+      </c>
+      <c r="AD8" s="1">
         <f t="shared" si="11"/>
-        <v>0.36166357186649728</v>
-      </c>
-      <c r="AD8" s="1">
+        <v>149.71127998202286</v>
+      </c>
+      <c r="AE8" s="1">
         <f t="shared" si="12"/>
-        <v>149.71127998202286</v>
-      </c>
-      <c r="AE8" s="1">
+        <v>13.489583333333332</v>
+      </c>
+      <c r="AF8" s="1">
         <f t="shared" si="13"/>
-        <v>13.489583333333332</v>
-      </c>
-      <c r="AF8" s="1">
-        <f t="shared" si="14"/>
         <v>10.895095308194202</v>
       </c>
       <c r="AG8" s="1">
         <v>0.80620000000000003</v>
       </c>
       <c r="AH8" s="1">
+        <f t="shared" si="14"/>
+        <v>0.36166357186649728</v>
+      </c>
+      <c r="AI8" s="1">
         <f t="shared" si="15"/>
-        <v>0.36166357186649728</v>
-      </c>
-      <c r="AI8" s="1">
+        <v>5.025448450854701</v>
+      </c>
+      <c r="AJ8" s="1">
         <f t="shared" si="16"/>
-        <v>5.025448450854701</v>
-      </c>
-      <c r="AJ8" s="1">
+        <v>35.485780277798519</v>
+      </c>
+      <c r="AK8" s="1">
         <f t="shared" si="17"/>
-        <v>35.485780277798519</v>
-      </c>
-      <c r="AK8" s="1">
+        <v>36.813411816696551</v>
+      </c>
+      <c r="AL8" s="1">
         <f t="shared" si="18"/>
-        <v>36.813411816696551</v>
-      </c>
-      <c r="AL8" s="1">
+        <v>24.018155709691026</v>
+      </c>
+      <c r="AM8" s="1">
         <f t="shared" si="19"/>
-        <v>24.018155709691026</v>
-      </c>
-      <c r="AM8" s="1">
+        <v>19.363437133152907</v>
+      </c>
+      <c r="AN8" s="1">
         <f t="shared" si="20"/>
-        <v>19.363437133152907</v>
-      </c>
-      <c r="AN8" s="1">
+        <v>22.789960640002619</v>
+      </c>
+      <c r="AO8" s="1">
         <f t="shared" si="21"/>
-        <v>22.789960640002619</v>
-      </c>
-      <c r="AO8" s="1">
+        <v>0.14464126609517688</v>
+      </c>
+      <c r="AP8" s="1">
         <f t="shared" si="22"/>
-        <v>0.1451904868167847</v>
-      </c>
-      <c r="AP8" s="1">
-        <f t="shared" si="23"/>
         <v>0.875</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="26"/>
-        <v>0.16533335020197254</v>
+        <v>3.0971345224427607</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -1873,16 +1873,16 @@
         <v>0.5</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="7"/>
-        <v>0.66021941597920375</v>
+        <f t="shared" si="23"/>
+        <v>0.16505485399480094</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" si="24"/>
-        <v>1.0823665474366095</v>
+        <v>246.47589767401752</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="25"/>
-        <v>6.3296519570771794</v>
+        <v>94.671323162646303</v>
       </c>
       <c r="X9" s="1">
         <f>[1]!HeatTransferArea(H9,I9,0.36,L9)</f>
@@ -1893,75 +1893,75 @@
         <v>19632.102250269269</v>
       </c>
       <c r="Z9" s="1">
+        <f t="shared" si="7"/>
+        <v>40.281244129683564</v>
+      </c>
+      <c r="AA9" s="1">
         <f t="shared" si="8"/>
-        <v>161.12497651873426</v>
-      </c>
-      <c r="AA9" s="1">
+        <v>3074.3713749795356</v>
+      </c>
+      <c r="AB9" s="1">
         <f t="shared" si="9"/>
-        <v>9191.4434798258389</v>
-      </c>
-      <c r="AB9" s="1">
+        <v>21.901677505020178</v>
+      </c>
+      <c r="AC9" s="1">
         <f t="shared" si="10"/>
-        <v>22.006010638126707</v>
-      </c>
-      <c r="AC9" s="1">
+        <v>0.54273107127604681</v>
+      </c>
+      <c r="AD9" s="1">
         <f t="shared" si="11"/>
-        <v>0.54273107127604681</v>
-      </c>
-      <c r="AD9" s="1">
+        <v>198.39608247856998</v>
+      </c>
+      <c r="AE9" s="1">
         <f t="shared" si="12"/>
-        <v>198.39608247856998</v>
-      </c>
-      <c r="AE9" s="1">
+        <v>10.1171875</v>
+      </c>
+      <c r="AF9" s="1">
         <f t="shared" si="13"/>
-        <v>10.1171875</v>
-      </c>
-      <c r="AF9" s="1">
-        <f t="shared" si="14"/>
         <v>5.4422761139822642</v>
       </c>
       <c r="AG9" s="1">
         <v>0.5383</v>
       </c>
       <c r="AH9" s="1">
+        <f t="shared" si="14"/>
+        <v>0.54273107127604692</v>
+      </c>
+      <c r="AI9" s="1">
         <f t="shared" si="15"/>
-        <v>0.54273107127604692</v>
-      </c>
-      <c r="AI9" s="1">
+        <v>2.5249349555335936</v>
+      </c>
+      <c r="AJ9" s="1">
         <f t="shared" si="16"/>
-        <v>2.5249349555335936</v>
-      </c>
-      <c r="AJ9" s="1">
+        <v>17.611715411179539</v>
+      </c>
+      <c r="AK9" s="1">
         <f t="shared" si="17"/>
-        <v>17.611715411179539</v>
-      </c>
-      <c r="AK9" s="1">
+        <v>18.268102638115487</v>
+      </c>
+      <c r="AL9" s="1">
         <f t="shared" si="18"/>
-        <v>18.268102638115487</v>
-      </c>
-      <c r="AL9" s="1">
+        <v>17.22440994704175</v>
+      </c>
+      <c r="AM9" s="1">
         <f t="shared" si="19"/>
-        <v>17.22440994704175</v>
-      </c>
-      <c r="AM9" s="1">
+        <v>9.2718998744925738</v>
+      </c>
+      <c r="AN9" s="1">
         <f t="shared" si="20"/>
-        <v>9.2718998744925738</v>
-      </c>
-      <c r="AN9" s="1">
+        <v>16.980195031286254</v>
+      </c>
+      <c r="AO9" s="1">
         <f t="shared" si="21"/>
-        <v>16.980195031286254</v>
-      </c>
-      <c r="AO9" s="1">
+        <v>0.13810398947729779</v>
+      </c>
+      <c r="AP9" s="1">
         <f t="shared" si="22"/>
-        <v>0.13876187615804975</v>
-      </c>
-      <c r="AP9" s="1">
-        <f t="shared" si="23"/>
         <v>0.45</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="26"/>
-        <v>0.15086636299179926</v>
+        <v>2.2564776550154915</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -2033,16 +2033,16 @@
         <v>0.5</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="7"/>
-        <v>0.77025598530907113</v>
+        <f t="shared" si="23"/>
+        <v>0.19256399632726778</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" si="24"/>
-        <v>1.4732211340109409</v>
+        <v>287.55521395302043</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="25"/>
-        <v>6.470359608243939</v>
+        <v>109.45987702308736</v>
       </c>
       <c r="X10" s="1">
         <f>[1]!HeatTransferArea(H10,I10,0.36,L10)</f>
@@ -2053,75 +2053,75 @@
         <v>19694.142440547083</v>
       </c>
       <c r="Z10" s="1">
+        <f t="shared" si="7"/>
+        <v>46.99478481796416</v>
+      </c>
+      <c r="AA10" s="1">
         <f t="shared" si="8"/>
-        <v>187.97913927185664</v>
-      </c>
-      <c r="AA10" s="1">
+        <v>3472.5162891045738</v>
+      </c>
+      <c r="AB10" s="1">
         <f t="shared" si="9"/>
-        <v>10381.776731281119</v>
-      </c>
-      <c r="AB10" s="1">
+        <v>21.919581510047937</v>
+      </c>
+      <c r="AC10" s="1">
         <f t="shared" si="10"/>
-        <v>22.01205311546796</v>
-      </c>
-      <c r="AC10" s="1">
+        <v>0.31980235078270708</v>
+      </c>
+      <c r="AD10" s="1">
         <f t="shared" si="11"/>
-        <v>0.31980235078270708</v>
-      </c>
-      <c r="AD10" s="1">
+        <v>170.59117873820571</v>
+      </c>
+      <c r="AE10" s="1">
         <f t="shared" si="12"/>
-        <v>170.59117873820571</v>
-      </c>
-      <c r="AE10" s="1">
+        <v>11.803385416666666</v>
+      </c>
+      <c r="AF10" s="1">
         <f t="shared" si="13"/>
-        <v>11.803385416666666</v>
-      </c>
-      <c r="AF10" s="1">
-        <f t="shared" si="14"/>
         <v>10.76616100180715</v>
       </c>
       <c r="AG10" s="1">
         <v>0.89200000000000002</v>
       </c>
       <c r="AH10" s="1">
+        <f t="shared" si="14"/>
+        <v>0.31980235078270708</v>
+      </c>
+      <c r="AI10" s="1">
         <f t="shared" si="15"/>
-        <v>0.31980235078270708</v>
-      </c>
-      <c r="AI10" s="1">
+        <v>5.0615735597826106</v>
+      </c>
+      <c r="AJ10" s="1">
         <f t="shared" si="16"/>
-        <v>5.0615735597826106</v>
-      </c>
-      <c r="AJ10" s="1">
+        <v>34.347986999308716</v>
+      </c>
+      <c r="AK10" s="1">
         <f t="shared" si="17"/>
-        <v>34.347986999308716</v>
-      </c>
-      <c r="AK10" s="1">
+        <v>35.485059296964415</v>
+      </c>
+      <c r="AL10" s="1">
         <f t="shared" si="18"/>
-        <v>35.485059296964415</v>
-      </c>
-      <c r="AL10" s="1">
+        <v>19.055110043218907</v>
+      </c>
+      <c r="AM10" s="1">
         <f t="shared" si="19"/>
-        <v>19.055110043218907</v>
-      </c>
-      <c r="AM10" s="1">
+        <v>16.997158158551265</v>
+      </c>
+      <c r="AN10" s="1">
         <f t="shared" si="20"/>
-        <v>16.997158158551265</v>
-      </c>
-      <c r="AN10" s="1">
+        <v>19.451865495278994</v>
+      </c>
+      <c r="AO10" s="1">
         <f t="shared" si="21"/>
-        <v>19.451865495278994</v>
-      </c>
-      <c r="AO10" s="1">
+        <v>0.13106339730721239</v>
+      </c>
+      <c r="AP10" s="1">
         <f t="shared" si="22"/>
-        <v>0.13161631127389758</v>
-      </c>
-      <c r="AP10" s="1">
-        <f t="shared" si="23"/>
         <v>0.65</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="26"/>
-        <v>0.14623836636925475</v>
+        <v>2.4739326046794781</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -2193,16 +2193,16 @@
         <v>0.5</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="7"/>
-        <v>0.44014627731946915</v>
+        <f t="shared" si="23"/>
+        <v>0.11003656932986729</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="24"/>
-        <v>0.48105179886071531</v>
+        <v>164.31726511601167</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="25"/>
-        <v>6.1131786475898569</v>
+        <v>65.094215441764206</v>
       </c>
       <c r="X11" s="1">
         <f>[1]!HeatTransferArea(H11,I11,0.36,L11)</f>
@@ -2213,75 +2213,75 @@
         <v>19493.845795166944</v>
       </c>
       <c r="Z11" s="1">
+        <f t="shared" si="7"/>
+        <v>26.85416275312237</v>
+      </c>
+      <c r="AA11" s="1">
         <f t="shared" si="8"/>
-        <v>107.41665101248948</v>
-      </c>
-      <c r="AA11" s="1">
+        <v>2231.7432667665953</v>
+      </c>
+      <c r="AB11" s="1">
         <f t="shared" si="9"/>
-        <v>6672.2394909442528</v>
-      </c>
-      <c r="AB11" s="1">
+        <v>21.842925382188987</v>
+      </c>
+      <c r="AC11" s="1">
         <f t="shared" si="10"/>
-        <v>21.986136046326394</v>
-      </c>
-      <c r="AC11" s="1">
+        <v>0.36814916153107125</v>
+      </c>
+      <c r="AD11" s="1">
         <f t="shared" si="11"/>
-        <v>0.36814916153107125</v>
-      </c>
-      <c r="AD11" s="1">
+        <v>295.4983568926823</v>
+      </c>
+      <c r="AE11" s="1">
         <f t="shared" si="12"/>
-        <v>295.4983568926823</v>
-      </c>
-      <c r="AE11" s="1">
+        <v>6.7447916666666661</v>
+      </c>
+      <c r="AF11" s="1">
         <f t="shared" si="13"/>
-        <v>6.7447916666666661</v>
-      </c>
-      <c r="AF11" s="1">
-        <f t="shared" si="14"/>
         <v>5.3403092017284841</v>
       </c>
       <c r="AG11" s="1">
         <v>0.79269999999999996</v>
       </c>
       <c r="AH11" s="1">
+        <f t="shared" si="14"/>
+        <v>0.36814916153107125</v>
+      </c>
+      <c r="AI11" s="1">
         <f t="shared" si="15"/>
-        <v>0.36814916153107125</v>
-      </c>
-      <c r="AI11" s="1">
+        <v>1.2365085409556313</v>
+      </c>
+      <c r="AJ11" s="1">
         <f t="shared" si="16"/>
-        <v>1.2365085409556313</v>
-      </c>
-      <c r="AJ11" s="1">
+        <v>16.869957943492381</v>
+      </c>
+      <c r="AK11" s="1">
         <f t="shared" si="17"/>
-        <v>16.869957943492381</v>
-      </c>
-      <c r="AK11" s="1">
+        <v>17.371582431495796</v>
+      </c>
+      <c r="AL11" s="1">
         <f t="shared" si="18"/>
-        <v>17.371582431495796</v>
-      </c>
-      <c r="AL11" s="1">
+        <v>10.434458298892572</v>
+      </c>
+      <c r="AM11" s="1">
         <f t="shared" si="19"/>
-        <v>10.434458298892572</v>
-      </c>
-      <c r="AM11" s="1">
+        <v>8.2713950935321421</v>
+      </c>
+      <c r="AN11" s="1">
         <f t="shared" si="20"/>
-        <v>8.2713950935321421</v>
-      </c>
-      <c r="AN11" s="1">
+        <v>10.970123638425518</v>
+      </c>
+      <c r="AO11" s="1">
         <f t="shared" si="21"/>
-        <v>10.970123638425518</v>
-      </c>
-      <c r="AO11" s="1">
+        <v>0.12515737915895073</v>
+      </c>
+      <c r="AP11" s="1">
         <f t="shared" si="22"/>
-        <v>0.12597795932746908</v>
-      </c>
-      <c r="AP11" s="1">
-        <f t="shared" si="23"/>
         <v>0.185</v>
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="26"/>
-        <v>0.13240259322179154</v>
+        <v>1.409846403167933</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -2353,16 +2353,16 @@
         <v>0.5</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="7"/>
-        <v>0.66021941597920375</v>
+        <f t="shared" si="23"/>
+        <v>0.16505485399480094</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" si="24"/>
-        <v>1.0823665474366095</v>
+        <v>246.47589767401752</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="25"/>
-        <v>6.3296519570771794</v>
+        <v>94.671323162646303</v>
       </c>
       <c r="X12" s="1">
         <f>[1]!HeatTransferArea(H12,I12,0.36,L12)</f>
@@ -2373,75 +2373,75 @@
         <v>19632.102250269269</v>
       </c>
       <c r="Z12" s="1">
+        <f t="shared" si="7"/>
+        <v>40.281244129683564</v>
+      </c>
+      <c r="AA12" s="1">
         <f t="shared" si="8"/>
-        <v>161.12497651873426</v>
-      </c>
-      <c r="AA12" s="1">
+        <v>3074.3713749795356</v>
+      </c>
+      <c r="AB12" s="1">
         <f t="shared" si="9"/>
-        <v>9191.4434798258389</v>
-      </c>
-      <c r="AB12" s="1">
+        <v>21.901677505020178</v>
+      </c>
+      <c r="AC12" s="1">
         <f t="shared" si="10"/>
-        <v>22.006010638126707</v>
-      </c>
-      <c r="AC12" s="1">
+        <v>0.27434183218956598</v>
+      </c>
+      <c r="AD12" s="1">
         <f t="shared" si="11"/>
-        <v>0.27434183218956598</v>
-      </c>
-      <c r="AD12" s="1">
+        <v>198.39608247856998</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="12"/>
-        <v>198.39608247856998</v>
-      </c>
-      <c r="AE12" s="1">
+        <v>10.1171875</v>
+      </c>
+      <c r="AF12" s="1">
         <f t="shared" si="13"/>
-        <v>10.1171875</v>
-      </c>
-      <c r="AF12" s="1">
-        <f t="shared" si="14"/>
         <v>10.746646437200807</v>
       </c>
       <c r="AG12" s="1">
         <v>0.95140000000000002</v>
       </c>
       <c r="AH12" s="1">
+        <f t="shared" si="14"/>
+        <v>0.27434183218956598</v>
+      </c>
+      <c r="AI12" s="1">
         <f t="shared" si="15"/>
-        <v>0.27434183218956598</v>
-      </c>
-      <c r="AI12" s="1">
+        <v>3.6885809808394185</v>
+      </c>
+      <c r="AJ12" s="1">
         <f t="shared" si="16"/>
-        <v>3.6885809808394185</v>
-      </c>
-      <c r="AJ12" s="1">
+        <v>33.978707594083971</v>
+      </c>
+      <c r="AK12" s="1">
         <f t="shared" si="17"/>
-        <v>33.978707594083971</v>
-      </c>
-      <c r="AK12" s="1">
+        <v>35.106976049644885</v>
+      </c>
+      <c r="AL12" s="1">
         <f t="shared" si="18"/>
-        <v>35.106976049644885</v>
-      </c>
-      <c r="AL12" s="1">
+        <v>15.287248471002522</v>
+      </c>
+      <c r="AM12" s="1">
         <f t="shared" si="19"/>
-        <v>15.287248471002522</v>
-      </c>
-      <c r="AM12" s="1">
+        <v>14.5442881953118</v>
+      </c>
+      <c r="AN12" s="1">
         <f t="shared" si="20"/>
-        <v>14.5442881953118</v>
-      </c>
-      <c r="AN12" s="1">
+        <v>16.525334732459189</v>
+      </c>
+      <c r="AO12" s="1">
         <f t="shared" si="21"/>
-        <v>16.525334732459189</v>
-      </c>
-      <c r="AO12" s="1">
+        <v>0.12257197828357352</v>
+      </c>
+      <c r="AP12" s="1">
         <f t="shared" si="22"/>
-        <v>0.12315587504319202</v>
-      </c>
-      <c r="AP12" s="1">
-        <f t="shared" si="23"/>
         <v>0.46</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="26"/>
-        <v>0.13389901796712644</v>
+        <v>2.002700509773423</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -2513,16 +2513,16 @@
         <v>0.5</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="7"/>
-        <v>0.55018284664933648</v>
+        <f t="shared" si="23"/>
+        <v>0.13754571166233412</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="24"/>
-        <v>0.75164343571986791</v>
+        <v>205.39658139501461</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="25"/>
-        <v>6.2105916368591521</v>
+        <v>79.882769302205261</v>
       </c>
       <c r="X13" s="1">
         <f>[1]!HeatTransferArea(H13,I13,0.36,L13)</f>
@@ -2533,75 +2533,75 @@
         <v>19565.76017933507</v>
       </c>
       <c r="Z13" s="1">
+        <f t="shared" si="7"/>
+        <v>33.567703441402969</v>
+      </c>
+      <c r="AA13" s="1">
         <f t="shared" si="8"/>
-        <v>134.27081376561188</v>
-      </c>
-      <c r="AA13" s="1">
+        <v>2661.9699185544869</v>
+      </c>
+      <c r="AB13" s="1">
         <f t="shared" si="9"/>
-        <v>7958.4874652799681</v>
-      </c>
-      <c r="AB13" s="1">
+        <v>21.87753199259911</v>
+      </c>
+      <c r="AC13" s="1">
         <f t="shared" si="10"/>
-        <v>21.997851300457459</v>
-      </c>
-      <c r="AC13" s="1">
+        <v>0.4576127742767116</v>
+      </c>
+      <c r="AD13" s="1">
         <f t="shared" si="11"/>
-        <v>0.4576127742767116</v>
-      </c>
-      <c r="AD13" s="1">
+        <v>237.27077951065817</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="12"/>
-        <v>237.27077951065817</v>
-      </c>
-      <c r="AE13" s="1">
+        <v>8.4309895833333339</v>
+      </c>
+      <c r="AF13" s="1">
         <f t="shared" si="13"/>
-        <v>8.4309895833333339</v>
-      </c>
-      <c r="AF13" s="1">
-        <f t="shared" si="14"/>
         <v>5.3594217368801891</v>
       </c>
       <c r="AG13" s="1">
         <v>0.63619999999999999</v>
       </c>
       <c r="AH13" s="1">
+        <f t="shared" si="14"/>
+        <v>0.4576127742767116</v>
+      </c>
+      <c r="AI13" s="1">
         <f t="shared" si="15"/>
-        <v>0.4576127742767116</v>
-      </c>
-      <c r="AI13" s="1">
+        <v>2.6749201585820939</v>
+      </c>
+      <c r="AJ13" s="1">
         <f t="shared" si="16"/>
-        <v>2.6749201585820939</v>
-      </c>
-      <c r="AJ13" s="1">
+        <v>16.712567993501903</v>
+      </c>
+      <c r="AK13" s="1">
         <f t="shared" si="17"/>
-        <v>16.712567993501903</v>
-      </c>
-      <c r="AK13" s="1">
+        <v>17.263133742045493</v>
+      </c>
+      <c r="AL13" s="1">
         <f t="shared" si="18"/>
-        <v>17.263133742045493</v>
-      </c>
-      <c r="AL13" s="1">
+        <v>11.435737644783897</v>
+      </c>
+      <c r="AM13" s="1">
         <f t="shared" si="19"/>
-        <v>11.435737644783897</v>
-      </c>
-      <c r="AM13" s="1">
+        <v>7.2754162896115151</v>
+      </c>
+      <c r="AN13" s="1">
         <f t="shared" si="20"/>
-        <v>7.2754162896115151</v>
-      </c>
-      <c r="AN13" s="1">
+        <v>13.578451920785037</v>
+      </c>
+      <c r="AO13" s="1">
         <f t="shared" si="21"/>
-        <v>13.578451920785037</v>
-      </c>
-      <c r="AO13" s="1">
+        <v>0.10990773256347189</v>
+      </c>
+      <c r="AP13" s="1">
         <f t="shared" si="22"/>
-        <v>0.1105121893328548</v>
-      </c>
-      <c r="AP13" s="1">
-        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="26"/>
-        <v>0.11793606696629594</v>
+        <v>1.5169343245762827</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -2673,16 +2673,16 @@
         <v>0.5</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="7"/>
-        <v>0.66021941597920375</v>
+        <f t="shared" si="23"/>
+        <v>0.16505485399480094</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="24"/>
-        <v>1.0823665474366095</v>
+        <v>246.47589767401752</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="25"/>
-        <v>6.3296519570771794</v>
+        <v>94.671323162646303</v>
       </c>
       <c r="X14" s="1">
         <f>[1]!HeatTransferArea(H14,I14,0.36,L14)</f>
@@ -2693,75 +2693,75 @@
         <v>19632.102250269269</v>
       </c>
       <c r="Z14" s="1">
+        <f t="shared" si="7"/>
+        <v>40.281244129683564</v>
+      </c>
+      <c r="AA14" s="1">
         <f t="shared" si="8"/>
-        <v>161.12497651873426</v>
-      </c>
-      <c r="AA14" s="1">
+        <v>3074.3713749795356</v>
+      </c>
+      <c r="AB14" s="1">
         <f t="shared" si="9"/>
-        <v>9191.4434798258389</v>
-      </c>
-      <c r="AB14" s="1">
+        <v>21.901677505020178</v>
+      </c>
+      <c r="AC14" s="1">
         <f t="shared" si="10"/>
-        <v>22.006010638126707</v>
-      </c>
-      <c r="AC14" s="1">
+        <v>0.54738370249884427</v>
+      </c>
+      <c r="AD14" s="1">
         <f t="shared" si="11"/>
-        <v>0.54738370249884427</v>
-      </c>
-      <c r="AD14" s="1">
+        <v>198.39608247856998</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="12"/>
-        <v>198.39608247856998</v>
-      </c>
-      <c r="AE14" s="1">
+        <v>10.1171875</v>
+      </c>
+      <c r="AF14" s="1">
         <f t="shared" si="13"/>
-        <v>10.1171875</v>
-      </c>
-      <c r="AF14" s="1">
-        <f t="shared" si="14"/>
         <v>5.3765718745442577</v>
       </c>
       <c r="AG14" s="1">
         <v>0.53169999999999995</v>
       </c>
       <c r="AH14" s="1">
+        <f t="shared" si="14"/>
+        <v>0.54738370249884427</v>
+      </c>
+      <c r="AI14" s="1">
         <f t="shared" si="15"/>
-        <v>0.54738370249884427</v>
-      </c>
-      <c r="AI14" s="1">
+        <v>3.9052039173228312</v>
+      </c>
+      <c r="AJ14" s="1">
         <f t="shared" si="16"/>
-        <v>3.9052039173228312</v>
-      </c>
-      <c r="AJ14" s="1">
+        <v>16.80233134559845</v>
+      </c>
+      <c r="AK14" s="1">
         <f t="shared" si="17"/>
-        <v>16.80233134559845</v>
-      </c>
-      <c r="AK14" s="1">
+        <v>17.373794495616156</v>
+      </c>
+      <c r="AL14" s="1">
         <f t="shared" si="18"/>
-        <v>17.373794495616156</v>
-      </c>
-      <c r="AL14" s="1">
+        <v>13.679112045552422</v>
+      </c>
+      <c r="AM14" s="1">
         <f t="shared" si="19"/>
-        <v>13.679112045552422</v>
-      </c>
-      <c r="AM14" s="1">
+        <v>7.273183874620222</v>
+      </c>
+      <c r="AN14" s="1">
         <f t="shared" si="20"/>
-        <v>7.273183874620222</v>
-      </c>
-      <c r="AN14" s="1">
+        <v>16.34628352415692</v>
+      </c>
+      <c r="AO14" s="1">
         <f t="shared" si="21"/>
-        <v>16.34628352415692</v>
-      </c>
-      <c r="AO14" s="1">
+        <v>0.10967806454944509</v>
+      </c>
+      <c r="AP14" s="1">
         <f t="shared" si="22"/>
-        <v>0.11020053850628611</v>
-      </c>
-      <c r="AP14" s="1">
-        <f t="shared" si="23"/>
         <v>0.45</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="26"/>
-        <v>0.11981356050018097</v>
+        <v>1.7920271734210298</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
@@ -2833,16 +2833,16 @@
         <v>0.5</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="7"/>
-        <v>0.44014627731946915</v>
+        <f t="shared" si="23"/>
+        <v>0.11003656932986729</v>
       </c>
       <c r="V15" s="1">
         <f t="shared" si="24"/>
-        <v>0.48105179886071531</v>
+        <v>164.31726511601167</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="25"/>
-        <v>6.1131786475898569</v>
+        <v>65.094215441764206</v>
       </c>
       <c r="X15" s="1">
         <f>[1]!HeatTransferArea(H15,I15,0.36,L15)</f>
@@ -2853,75 +2853,75 @@
         <v>19493.845795166944</v>
       </c>
       <c r="Z15" s="1">
+        <f t="shared" si="7"/>
+        <v>26.85416275312237</v>
+      </c>
+      <c r="AA15" s="1">
         <f t="shared" si="8"/>
-        <v>107.41665101248948</v>
-      </c>
-      <c r="AA15" s="1">
+        <v>2231.7432667665953</v>
+      </c>
+      <c r="AB15" s="1">
         <f t="shared" si="9"/>
-        <v>6672.2394909442528</v>
-      </c>
-      <c r="AB15" s="1">
+        <v>21.842925382188987</v>
+      </c>
+      <c r="AC15" s="1">
         <f t="shared" si="10"/>
-        <v>21.986136046326394</v>
-      </c>
-      <c r="AC15" s="1">
+        <v>0.36785909729168503</v>
+      </c>
+      <c r="AD15" s="1">
         <f t="shared" si="11"/>
-        <v>0.36785909729168503</v>
-      </c>
-      <c r="AD15" s="1">
+        <v>295.4983568926823</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="12"/>
-        <v>295.4983568926823</v>
-      </c>
-      <c r="AE15" s="1">
+        <v>6.7447916666666661</v>
+      </c>
+      <c r="AF15" s="1">
         <f t="shared" si="13"/>
-        <v>6.7447916666666661</v>
-      </c>
-      <c r="AF15" s="1">
-        <f t="shared" si="14"/>
         <v>5.3230636732544285</v>
       </c>
       <c r="AG15" s="1">
         <v>0.79010000000000002</v>
       </c>
       <c r="AH15" s="1">
+        <f t="shared" si="14"/>
+        <v>0.36785909729168503</v>
+      </c>
+      <c r="AI15" s="1">
         <f t="shared" si="15"/>
-        <v>0.36785909729168503</v>
-      </c>
-      <c r="AI15" s="1">
+        <v>2.5068010887896812</v>
+      </c>
+      <c r="AJ15" s="1">
         <f t="shared" si="16"/>
-        <v>2.5068010887896812</v>
-      </c>
-      <c r="AJ15" s="1">
+        <v>16.329207180108881</v>
+      </c>
+      <c r="AK15" s="1">
         <f t="shared" si="17"/>
-        <v>16.329207180108881</v>
-      </c>
-      <c r="AK15" s="1">
+        <v>16.837620257067805</v>
+      </c>
+      <c r="AL15" s="1">
         <f t="shared" si="18"/>
-        <v>16.837620257067805</v>
-      </c>
-      <c r="AL15" s="1">
+        <v>8.1456765317563651</v>
+      </c>
+      <c r="AM15" s="1">
         <f t="shared" si="19"/>
-        <v>8.1456765317563651</v>
-      </c>
-      <c r="AM15" s="1">
+        <v>6.435899027740704</v>
+      </c>
+      <c r="AN15" s="1">
         <f t="shared" si="20"/>
-        <v>6.435899027740704</v>
-      </c>
-      <c r="AN15" s="1">
+        <v>10.667375760220462</v>
+      </c>
+      <c r="AO15" s="1">
         <f t="shared" si="21"/>
-        <v>10.667375760220462</v>
-      </c>
-      <c r="AO15" s="1">
+        <v>9.7704307879537808E-2</v>
+      </c>
+      <c r="AP15" s="1">
         <f t="shared" si="22"/>
-        <v>9.8344895098314081E-2</v>
-      </c>
-      <c r="AP15" s="1">
-        <f t="shared" si="23"/>
         <v>0.185</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="26"/>
-        <v>0.10336029580614604</v>
+        <v>1.100598845738354</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
@@ -2993,16 +2993,16 @@
         <v>0.5</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="7"/>
-        <v>0.66021941597920375</v>
+        <f t="shared" si="23"/>
+        <v>0.16505485399480094</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="24"/>
-        <v>1.0823665474366095</v>
+        <v>246.47589767401752</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="25"/>
-        <v>6.3296519570771794</v>
+        <v>94.671323162646303</v>
       </c>
       <c r="X16" s="1">
         <f>[1]!HeatTransferArea(H16,I16,0.36,L16)</f>
@@ -3013,75 +3013,75 @@
         <v>19632.102250269269</v>
       </c>
       <c r="Z16" s="1">
+        <f t="shared" si="7"/>
+        <v>40.281244129683564</v>
+      </c>
+      <c r="AA16" s="1">
         <f t="shared" si="8"/>
-        <v>161.12497651873426</v>
-      </c>
-      <c r="AA16" s="1">
+        <v>3074.3713749795356</v>
+      </c>
+      <c r="AB16" s="1">
         <f t="shared" si="9"/>
-        <v>9191.4434798258389</v>
-      </c>
-      <c r="AB16" s="1">
+        <v>21.901677505020178</v>
+      </c>
+      <c r="AC16" s="1">
         <f t="shared" si="10"/>
-        <v>22.006010638126707</v>
-      </c>
-      <c r="AC16" s="1">
+        <v>0.27611762756383579</v>
+      </c>
+      <c r="AD16" s="1">
         <f t="shared" si="11"/>
-        <v>0.27611762756383579</v>
-      </c>
-      <c r="AD16" s="1">
+        <v>198.39608247856998</v>
+      </c>
+      <c r="AE16" s="1">
         <f t="shared" si="12"/>
-        <v>198.39608247856998</v>
-      </c>
-      <c r="AE16" s="1">
+        <v>10.1171875</v>
+      </c>
+      <c r="AF16" s="1">
         <f t="shared" si="13"/>
-        <v>10.1171875</v>
-      </c>
-      <c r="AF16" s="1">
-        <f t="shared" si="14"/>
         <v>10.602654770816054</v>
       </c>
       <c r="AG16" s="1">
         <v>0.9486</v>
       </c>
       <c r="AH16" s="1">
+        <f t="shared" si="14"/>
+        <v>0.27611762756383573</v>
+      </c>
+      <c r="AI16" s="1">
         <f t="shared" si="15"/>
-        <v>0.27611762756383573</v>
-      </c>
-      <c r="AI16" s="1">
+        <v>5.072900096938775</v>
+      </c>
+      <c r="AJ16" s="1">
         <f t="shared" si="16"/>
-        <v>5.072900096938775</v>
-      </c>
-      <c r="AJ16" s="1">
+        <v>31.841731434538779</v>
+      </c>
+      <c r="AK16" s="1">
         <f t="shared" si="17"/>
-        <v>31.841731434538779</v>
-      </c>
-      <c r="AK16" s="1">
+        <v>32.835005423386221</v>
+      </c>
+      <c r="AL16" s="1">
         <f t="shared" si="18"/>
-        <v>32.835005423386221</v>
-      </c>
-      <c r="AL16" s="1">
+        <v>9.8928848074776639</v>
+      </c>
+      <c r="AM16" s="1">
         <f t="shared" si="19"/>
-        <v>9.8928848074776639</v>
-      </c>
-      <c r="AM16" s="1">
+        <v>9.3843905283733111</v>
+      </c>
+      <c r="AN16" s="1">
         <f t="shared" si="20"/>
-        <v>9.3843905283733111</v>
-      </c>
-      <c r="AN16" s="1">
+        <v>15.665789069464676</v>
+      </c>
+      <c r="AO16" s="1">
         <f t="shared" si="21"/>
-        <v>15.665789069464676</v>
-      </c>
-      <c r="AO16" s="1">
+        <v>7.9320386797149117E-2</v>
+      </c>
+      <c r="AP16" s="1">
         <f t="shared" si="22"/>
-        <v>7.969824572927299E-2</v>
-      </c>
-      <c r="AP16" s="1">
-        <f t="shared" si="23"/>
         <v>0.46</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="26"/>
-        <v>8.6650489334023029E-2</v>
+        <v>1.2960138303924609</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -3153,16 +3153,16 @@
         <v>0.5</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="7"/>
-        <v>0.55018284664933648</v>
+        <f t="shared" si="23"/>
+        <v>0.13754571166233412</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="24"/>
-        <v>0.75164343571986791</v>
+        <v>205.39658139501461</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="25"/>
-        <v>6.2105916368591521</v>
+        <v>79.882769302205261</v>
       </c>
       <c r="X17" s="1">
         <f>[1]!HeatTransferArea(H17,I17,0.36,L17)</f>
@@ -3173,75 +3173,75 @@
         <v>19565.76017933507</v>
       </c>
       <c r="Z17" s="1">
+        <f t="shared" si="7"/>
+        <v>33.567703441402969</v>
+      </c>
+      <c r="AA17" s="1">
         <f t="shared" si="8"/>
-        <v>134.27081376561188</v>
-      </c>
-      <c r="AA17" s="1">
+        <v>2661.9699185544869</v>
+      </c>
+      <c r="AB17" s="1">
         <f t="shared" si="9"/>
-        <v>7958.4874652799681</v>
-      </c>
-      <c r="AB17" s="1">
+        <v>21.87753199259911</v>
+      </c>
+      <c r="AC17" s="1">
         <f t="shared" si="10"/>
-        <v>21.997851300457459</v>
-      </c>
-      <c r="AC17" s="1">
+        <v>0.46207236966326926</v>
+      </c>
+      <c r="AD17" s="1">
         <f t="shared" si="11"/>
-        <v>0.46207236966326926</v>
-      </c>
-      <c r="AD17" s="1">
+        <v>237.27077951065817</v>
+      </c>
+      <c r="AE17" s="1">
         <f t="shared" si="12"/>
-        <v>237.27077951065817</v>
-      </c>
-      <c r="AE17" s="1">
+        <v>8.4309895833333339</v>
+      </c>
+      <c r="AF17" s="1">
         <f t="shared" si="13"/>
-        <v>8.4309895833333339</v>
-      </c>
-      <c r="AF17" s="1">
-        <f t="shared" si="14"/>
         <v>5.2776741665777935</v>
       </c>
       <c r="AG17" s="1">
         <v>0.626</v>
       </c>
       <c r="AH17" s="1">
+        <f t="shared" si="14"/>
+        <v>0.4620723696632692</v>
+      </c>
+      <c r="AI17" s="1">
         <f t="shared" si="15"/>
-        <v>0.4620723696632692</v>
-      </c>
-      <c r="AI17" s="1">
+        <v>3.8574799509803936</v>
+      </c>
+      <c r="AJ17" s="1">
         <f t="shared" si="16"/>
-        <v>3.8574799509803936</v>
-      </c>
-      <c r="AJ17" s="1">
+        <v>15.762825773887597</v>
+      </c>
+      <c r="AK17" s="1">
         <f t="shared" si="17"/>
-        <v>15.762825773887597</v>
-      </c>
-      <c r="AK17" s="1">
+        <v>16.236002999528036</v>
+      </c>
+      <c r="AL17" s="1">
         <f t="shared" si="18"/>
-        <v>16.236002999528036</v>
-      </c>
-      <c r="AL17" s="1">
+        <v>8.0618030793632656</v>
+      </c>
+      <c r="AM17" s="1">
         <f t="shared" si="19"/>
-        <v>8.0618030793632656</v>
-      </c>
-      <c r="AM17" s="1">
+        <v>5.0466887276814045</v>
+      </c>
+      <c r="AN17" s="1">
         <f t="shared" si="20"/>
-        <v>5.0466887276814045</v>
-      </c>
-      <c r="AN17" s="1">
+        <v>12.968361426218022</v>
+      </c>
+      <c r="AO17" s="1">
         <f t="shared" si="21"/>
-        <v>12.968361426218022</v>
-      </c>
-      <c r="AO17" s="1">
+        <v>7.748118436681535E-2</v>
+      </c>
+      <c r="AP17" s="1">
         <f t="shared" si="22"/>
-        <v>7.7907305671458579E-2</v>
-      </c>
-      <c r="AP17" s="1">
-        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="26"/>
-        <v>8.3140884949432892E-2</v>
+        <v>1.0693867058622966</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -3313,16 +3313,16 @@
         <v>0.5</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="7"/>
-        <v>0.8802925546389383</v>
+        <f t="shared" si="23"/>
+        <v>0.22007313865973457</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="24"/>
-        <v>1.9242071954428612</v>
+        <v>328.63453023202334</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="25"/>
-        <v>6.6327145903594298</v>
+        <v>124.2484308835284</v>
       </c>
       <c r="X18" s="1">
         <f>[1]!HeatTransferArea(H18,I18,0.36,L18)</f>
@@ -3333,75 +3333,75 @@
         <v>19752.723070649943</v>
       </c>
       <c r="Z18" s="1">
+        <f t="shared" si="7"/>
+        <v>53.708325506244741</v>
+      </c>
+      <c r="AA18" s="1">
         <f t="shared" si="8"/>
-        <v>214.83330202497896</v>
-      </c>
-      <c r="AA18" s="1">
+        <v>3858.8502896807245</v>
+      </c>
+      <c r="AB18" s="1">
         <f t="shared" si="9"/>
-        <v>11536.79891224789</v>
-      </c>
-      <c r="AB18" s="1">
+        <v>21.933442676290149</v>
+      </c>
+      <c r="AC18" s="1">
         <f t="shared" si="10"/>
-        <v>22.016726662521915</v>
-      </c>
-      <c r="AC18" s="1">
+        <v>0.37602544247421449</v>
+      </c>
+      <c r="AD18" s="1">
         <f t="shared" si="11"/>
-        <v>0.37602544247421449</v>
-      </c>
-      <c r="AD18" s="1">
+        <v>149.71127998202286</v>
+      </c>
+      <c r="AE18" s="1">
         <f t="shared" si="12"/>
-        <v>149.71127998202286</v>
-      </c>
-      <c r="AE18" s="1">
+        <v>13.489583333333332</v>
+      </c>
+      <c r="AF18" s="1">
         <f t="shared" si="13"/>
-        <v>13.489583333333332</v>
-      </c>
-      <c r="AF18" s="1">
-        <f t="shared" si="14"/>
         <v>10.368362453371805</v>
       </c>
       <c r="AG18" s="1">
         <v>0.76819999999999999</v>
       </c>
       <c r="AH18" s="1">
+        <f t="shared" si="14"/>
+        <v>0.37602544247421449</v>
+      </c>
+      <c r="AI18" s="1">
         <f t="shared" si="15"/>
-        <v>0.37602544247421449</v>
-      </c>
-      <c r="AI18" s="1">
+        <v>7.5260857120901594</v>
+      </c>
+      <c r="AJ18" s="1">
         <f t="shared" si="16"/>
-        <v>7.5260857120901594</v>
-      </c>
-      <c r="AJ18" s="1">
+        <v>30.434951466114811</v>
+      </c>
+      <c r="AK18" s="1">
         <f t="shared" si="17"/>
-        <v>30.434951466114811</v>
-      </c>
-      <c r="AK18" s="1">
+        <v>31.202434678157946</v>
+      </c>
+      <c r="AL18" s="1">
         <f t="shared" si="18"/>
-        <v>31.202434678157946</v>
-      </c>
-      <c r="AL18" s="1">
+        <v>12.419456069629204</v>
+      </c>
+      <c r="AM18" s="1">
         <f t="shared" si="19"/>
-        <v>12.419456069629204</v>
-      </c>
-      <c r="AM18" s="1">
+        <v>9.5406261526891551</v>
+      </c>
+      <c r="AN18" s="1">
         <f t="shared" si="20"/>
-        <v>9.5406261526891551</v>
-      </c>
-      <c r="AN18" s="1">
+        <v>20.297701044248392</v>
+      </c>
+      <c r="AO18" s="1">
         <f t="shared" si="21"/>
-        <v>20.297701044248392</v>
-      </c>
-      <c r="AO18" s="1">
+        <v>7.4791997846853253E-2</v>
+      </c>
+      <c r="AP18" s="1">
         <f t="shared" si="22"/>
-        <v>7.5075992284518847E-2</v>
-      </c>
-      <c r="AP18" s="1">
-        <f t="shared" si="23"/>
         <v>0.875</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="26"/>
-        <v>8.5491588300825178E-2</v>
+        <v>1.6014854182867111</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -3473,16 +3473,16 @@
         <v>0.5</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="7"/>
-        <v>0.66021941597920375</v>
+        <f t="shared" si="23"/>
+        <v>0.16505485399480094</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="24"/>
-        <v>1.0823665474366095</v>
+        <v>246.47589767401752</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="25"/>
-        <v>6.3296519570771794</v>
+        <v>94.671323162646303</v>
       </c>
       <c r="X19" s="1">
         <f>[1]!HeatTransferArea(H19,I19,0.36,L19)</f>
@@ -3493,75 +3493,75 @@
         <v>19632.102250269269</v>
       </c>
       <c r="Z19" s="1">
+        <f t="shared" si="7"/>
+        <v>40.281244129683564</v>
+      </c>
+      <c r="AA19" s="1">
         <f t="shared" si="8"/>
-        <v>161.12497651873426</v>
-      </c>
-      <c r="AA19" s="1">
+        <v>3074.3713749795356</v>
+      </c>
+      <c r="AB19" s="1">
         <f t="shared" si="9"/>
-        <v>9191.4434798258389</v>
-      </c>
-      <c r="AB19" s="1">
+        <v>21.901677505020178</v>
+      </c>
+      <c r="AC19" s="1">
         <f t="shared" si="10"/>
-        <v>22.006010638126707</v>
-      </c>
-      <c r="AC19" s="1">
+        <v>0.55316460307880433</v>
+      </c>
+      <c r="AD19" s="1">
         <f t="shared" si="11"/>
-        <v>0.55316460307880433</v>
-      </c>
-      <c r="AD19" s="1">
+        <v>198.39608247856998</v>
+      </c>
+      <c r="AE19" s="1">
         <f t="shared" si="12"/>
-        <v>198.39608247856998</v>
-      </c>
-      <c r="AE19" s="1">
+        <v>10.1171875</v>
+      </c>
+      <c r="AF19" s="1">
         <f t="shared" si="13"/>
-        <v>10.1171875</v>
-      </c>
-      <c r="AF19" s="1">
-        <f t="shared" si="14"/>
         <v>5.2648181736083526</v>
       </c>
       <c r="AG19" s="1">
         <v>0.52059999999999995</v>
       </c>
       <c r="AH19" s="1">
+        <f t="shared" si="14"/>
+        <v>0.55316460307880433</v>
+      </c>
+      <c r="AI19" s="1">
         <f t="shared" si="15"/>
-        <v>0.55316460307880433</v>
-      </c>
-      <c r="AI19" s="1">
+        <v>5.0486269003036499</v>
+      </c>
+      <c r="AJ19" s="1">
         <f t="shared" si="16"/>
-        <v>5.0486269003036499</v>
-      </c>
-      <c r="AJ19" s="1">
+        <v>15.430485758504233</v>
+      </c>
+      <c r="AK19" s="1">
         <f t="shared" si="17"/>
-        <v>15.430485758504233</v>
-      </c>
-      <c r="AK19" s="1">
+        <v>15.77845335730793</v>
+      </c>
+      <c r="AL19" s="1">
         <f t="shared" si="18"/>
-        <v>15.77845335730793</v>
-      </c>
-      <c r="AL19" s="1">
+        <v>7.0757902355610893</v>
+      </c>
+      <c r="AM19" s="1">
         <f t="shared" si="19"/>
-        <v>7.0757902355610893</v>
-      </c>
-      <c r="AM19" s="1">
+        <v>3.6836563966331028</v>
+      </c>
+      <c r="AN19" s="1">
         <f t="shared" si="20"/>
-        <v>3.6836563966331028</v>
-      </c>
-      <c r="AN19" s="1">
+        <v>15.160406856603808</v>
+      </c>
+      <c r="AO19" s="1">
         <f t="shared" si="21"/>
-        <v>15.160406856603808</v>
-      </c>
-      <c r="AO19" s="1">
+        <v>5.6733139958929389E-2</v>
+      </c>
+      <c r="AP19" s="1">
         <f t="shared" si="22"/>
-        <v>5.7003399907809081E-2</v>
-      </c>
-      <c r="AP19" s="1">
-        <f t="shared" si="23"/>
         <v>0.45</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="26"/>
-        <v>6.1975924946870438E-2</v>
+        <v>0.92696136513300897</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -3633,16 +3633,16 @@
         <v>0.5</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="7"/>
-        <v>0.44014627731946915</v>
+        <f t="shared" si="23"/>
+        <v>0.11003656932986729</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" si="24"/>
-        <v>0.48105179886071531</v>
+        <v>164.31726511601167</v>
       </c>
       <c r="W20" s="1">
         <f t="shared" si="25"/>
-        <v>6.1131786475898569</v>
+        <v>65.094215441764206</v>
       </c>
       <c r="X20" s="1">
         <f>[1]!HeatTransferArea(H20,I20,0.36,L20)</f>
@@ -3653,75 +3653,75 @@
         <v>19493.845795166944</v>
       </c>
       <c r="Z20" s="1">
+        <f t="shared" si="7"/>
+        <v>26.85416275312237</v>
+      </c>
+      <c r="AA20" s="1">
         <f t="shared" si="8"/>
-        <v>107.41665101248948</v>
-      </c>
-      <c r="AA20" s="1">
+        <v>2231.7432667665953</v>
+      </c>
+      <c r="AB20" s="1">
         <f t="shared" si="9"/>
-        <v>6672.2394909442528</v>
-      </c>
-      <c r="AB20" s="1">
+        <v>21.842925382188987</v>
+      </c>
+      <c r="AC20" s="1">
         <f t="shared" si="10"/>
-        <v>21.986136046326394</v>
-      </c>
-      <c r="AC20" s="1">
+        <v>0.37585939281632996</v>
+      </c>
+      <c r="AD20" s="1">
         <f t="shared" si="11"/>
-        <v>0.37585939281632996</v>
-      </c>
-      <c r="AD20" s="1">
+        <v>295.4983568926823</v>
+      </c>
+      <c r="AE20" s="1">
         <f t="shared" si="12"/>
-        <v>295.4983568926823</v>
-      </c>
-      <c r="AE20" s="1">
+        <v>6.7447916666666661</v>
+      </c>
+      <c r="AF20" s="1">
         <f t="shared" si="13"/>
-        <v>6.7447916666666661</v>
-      </c>
-      <c r="AF20" s="1">
-        <f t="shared" si="14"/>
         <v>5.1677142216917566</v>
       </c>
       <c r="AG20" s="1">
         <v>0.76639999999999997</v>
       </c>
       <c r="AH20" s="1">
+        <f t="shared" si="14"/>
+        <v>0.37585939281632996</v>
+      </c>
+      <c r="AI20" s="1">
         <f t="shared" si="15"/>
-        <v>0.37585939281632996</v>
-      </c>
-      <c r="AI20" s="1">
+        <v>3.7863331365384627</v>
+      </c>
+      <c r="AJ20" s="1">
         <f t="shared" si="16"/>
-        <v>3.7863331365384627</v>
-      </c>
-      <c r="AJ20" s="1">
+        <v>14.843912092076339</v>
+      </c>
+      <c r="AK20" s="1">
         <f t="shared" si="17"/>
-        <v>14.843912092076339</v>
-      </c>
-      <c r="AK20" s="1">
+        <v>15.229538864225805</v>
+      </c>
+      <c r="AL20" s="1">
         <f t="shared" si="18"/>
-        <v>15.229538864225805</v>
-      </c>
-      <c r="AL20" s="1">
+        <v>4.6377281408253213</v>
+      </c>
+      <c r="AM20" s="1">
         <f t="shared" si="19"/>
-        <v>4.6377281408253213</v>
-      </c>
-      <c r="AM20" s="1">
+        <v>3.554354847128526</v>
+      </c>
+      <c r="AN20" s="1">
         <f t="shared" si="20"/>
-        <v>3.554354847128526</v>
-      </c>
-      <c r="AN20" s="1">
+        <v>9.9386365433515422</v>
+      </c>
+      <c r="AO20" s="1">
         <f t="shared" si="21"/>
-        <v>9.9386365433515422</v>
-      </c>
-      <c r="AO20" s="1">
+        <v>5.5627794249655887E-2</v>
+      </c>
+      <c r="AP20" s="1">
         <f t="shared" si="22"/>
-        <v>5.599251157664397E-2</v>
-      </c>
-      <c r="AP20" s="1">
-        <f t="shared" si="23"/>
         <v>0.185</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="26"/>
-        <v>5.884802209311818E-2</v>
+        <v>0.62662422436507548</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -3793,16 +3793,16 @@
         <v>0.5</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="7"/>
-        <v>0.77025598530907113</v>
+        <f t="shared" si="23"/>
+        <v>0.19256399632726778</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="24"/>
-        <v>1.4732211340109409</v>
+        <v>287.55521395302043</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" si="25"/>
-        <v>6.470359608243939</v>
+        <v>109.45987702308736</v>
       </c>
       <c r="X21" s="1">
         <f>[1]!HeatTransferArea(H21,I21,0.36,L21)</f>
@@ -3813,75 +3813,75 @@
         <v>19694.142440547083</v>
       </c>
       <c r="Z21" s="1">
+        <f t="shared" si="7"/>
+        <v>46.99478481796416</v>
+      </c>
+      <c r="AA21" s="1">
         <f t="shared" si="8"/>
-        <v>187.97913927185664</v>
-      </c>
-      <c r="AA21" s="1">
+        <v>3472.5162891045738</v>
+      </c>
+      <c r="AB21" s="1">
         <f t="shared" si="9"/>
-        <v>10381.776731281119</v>
-      </c>
-      <c r="AB21" s="1">
+        <v>21.919581510047937</v>
+      </c>
+      <c r="AC21" s="1">
         <f t="shared" si="10"/>
-        <v>22.01205311546796</v>
-      </c>
-      <c r="AC21" s="1">
+        <v>0.33369894638829545</v>
+      </c>
+      <c r="AD21" s="1">
         <f t="shared" si="11"/>
-        <v>0.33369894638829545</v>
-      </c>
-      <c r="AD21" s="1">
+        <v>170.59117873820571</v>
+      </c>
+      <c r="AE21" s="1">
         <f t="shared" si="12"/>
-        <v>170.59117873820571</v>
-      </c>
-      <c r="AE21" s="1">
+        <v>11.803385416666666</v>
+      </c>
+      <c r="AF21" s="1">
         <f t="shared" si="13"/>
-        <v>11.803385416666666</v>
-      </c>
-      <c r="AF21" s="1">
-        <f t="shared" si="14"/>
         <v>10.156365717604125</v>
       </c>
       <c r="AG21" s="1">
         <v>0.85299999999999998</v>
       </c>
       <c r="AH21" s="1">
+        <f t="shared" si="14"/>
+        <v>0.33369894638829545</v>
+      </c>
+      <c r="AI21" s="1">
         <f t="shared" si="15"/>
-        <v>0.33369894638829545</v>
-      </c>
-      <c r="AI21" s="1">
+        <v>7.5104636063508048</v>
+      </c>
+      <c r="AJ21" s="1">
         <f t="shared" si="16"/>
-        <v>7.5104636063508048</v>
-      </c>
-      <c r="AJ21" s="1">
+        <v>28.308532291689346</v>
+      </c>
+      <c r="AK21" s="1">
         <f t="shared" si="17"/>
-        <v>28.308532291689346</v>
-      </c>
-      <c r="AK21" s="1">
+        <v>28.998826870578732</v>
+      </c>
+      <c r="AL21" s="1">
         <f t="shared" si="18"/>
-        <v>28.998826870578732</v>
-      </c>
-      <c r="AL21" s="1">
+        <v>6.0835023242580801</v>
+      </c>
+      <c r="AM21" s="1">
         <f t="shared" si="19"/>
-        <v>6.0835023242580801</v>
-      </c>
-      <c r="AM21" s="1">
+        <v>5.1892274825921421</v>
+      </c>
+      <c r="AN21" s="1">
         <f t="shared" si="20"/>
-        <v>5.1892274825921421</v>
-      </c>
-      <c r="AN21" s="1">
+        <v>16.850728877916723</v>
+      </c>
+      <c r="AO21" s="1">
         <f t="shared" si="21"/>
-        <v>16.850728877916723</v>
-      </c>
-      <c r="AO21" s="1">
+        <v>4.1843079380553275E-2</v>
+      </c>
+      <c r="AP21" s="1">
         <f t="shared" si="22"/>
-        <v>4.2019601761889042E-2</v>
-      </c>
-      <c r="AP21" s="1">
-        <f t="shared" si="23"/>
         <v>0.65</v>
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="26"/>
-        <v>4.6687814433255412E-2</v>
+        <v>0.7898235547572352</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -3953,16 +3953,16 @@
         <v>0.5</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="7"/>
-        <v>0.66021941597920375</v>
+        <f t="shared" si="23"/>
+        <v>0.16505485399480094</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="24"/>
-        <v>1.0823665474366095</v>
+        <v>246.47589767401752</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="25"/>
-        <v>6.3296519570771794</v>
+        <v>94.671323162646303</v>
       </c>
       <c r="X22" s="1">
         <f>[1]!HeatTransferArea(H22,I22,0.36,L22)</f>
@@ -3973,75 +3973,75 @@
         <v>19632.102250269269</v>
       </c>
       <c r="Z22" s="1">
+        <f t="shared" si="7"/>
+        <v>40.281244129683564</v>
+      </c>
+      <c r="AA22" s="1">
         <f t="shared" si="8"/>
-        <v>161.12497651873426</v>
-      </c>
-      <c r="AA22" s="1">
+        <v>3074.3713749795356</v>
+      </c>
+      <c r="AB22" s="1">
         <f t="shared" si="9"/>
-        <v>9191.4434798258389</v>
-      </c>
-      <c r="AB22" s="1">
+        <v>21.901677505020178</v>
+      </c>
+      <c r="AC22" s="1">
         <f t="shared" si="10"/>
-        <v>22.006010638126707</v>
-      </c>
-      <c r="AC22" s="1">
+        <v>0.28008636361900185</v>
+      </c>
+      <c r="AD22" s="1">
         <f t="shared" si="11"/>
-        <v>0.28008636361900185</v>
-      </c>
-      <c r="AD22" s="1">
+        <v>198.39608247856998</v>
+      </c>
+      <c r="AE22" s="1">
         <f t="shared" si="12"/>
-        <v>198.39608247856998</v>
-      </c>
-      <c r="AE22" s="1">
+        <v>10.1171875</v>
+      </c>
+      <c r="AF22" s="1">
         <f t="shared" si="13"/>
-        <v>10.1171875</v>
-      </c>
-      <c r="AF22" s="1">
-        <f t="shared" si="14"/>
         <v>10.363484685011848</v>
       </c>
       <c r="AG22" s="1">
         <v>0.94389999999999996</v>
       </c>
       <c r="AH22" s="1">
+        <f t="shared" si="14"/>
+        <v>0.28008636361900185</v>
+      </c>
+      <c r="AI22" s="1">
         <f t="shared" si="15"/>
-        <v>0.28008636361900185</v>
-      </c>
-      <c r="AI22" s="1">
+        <v>6.1989404209183689</v>
+      </c>
+      <c r="AJ22" s="1">
         <f t="shared" si="16"/>
-        <v>6.1989404209183689</v>
-      </c>
-      <c r="AJ22" s="1">
+        <v>29.269680724542592</v>
+      </c>
+      <c r="AK22" s="1">
         <f t="shared" si="17"/>
-        <v>29.269680724542592</v>
-      </c>
-      <c r="AK22" s="1">
+        <v>30.086789106780049</v>
+      </c>
+      <c r="AL22" s="1">
         <f t="shared" si="18"/>
-        <v>30.086789106780049</v>
-      </c>
-      <c r="AL22" s="1">
+        <v>4.5921003515625003</v>
+      </c>
+      <c r="AM22" s="1">
         <f t="shared" si="19"/>
-        <v>4.5921003515625003</v>
-      </c>
-      <c r="AM22" s="1">
+        <v>4.3344835218398439</v>
+      </c>
+      <c r="AN22" s="1">
         <f t="shared" si="20"/>
-        <v>4.3344835218398439</v>
-      </c>
-      <c r="AN22" s="1">
+        <v>14.685875259046773</v>
+      </c>
+      <c r="AO22" s="1">
         <f t="shared" si="21"/>
-        <v>14.685875259046773</v>
-      </c>
-      <c r="AO22" s="1">
+        <v>3.6819106174362917E-2</v>
+      </c>
+      <c r="AP22" s="1">
         <f t="shared" si="22"/>
-        <v>3.6994501538689363E-2</v>
-      </c>
-      <c r="AP22" s="1">
-        <f t="shared" si="23"/>
         <v>0.46</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="26"/>
-        <v>4.0221608790296043E-2</v>
+        <v>0.60158646158263374</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
@@ -4113,16 +4113,16 @@
         <v>0.5</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="7"/>
-        <v>0.55018284664933648</v>
+        <f t="shared" si="23"/>
+        <v>0.13754571166233412</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" si="24"/>
-        <v>0.75164343571986791</v>
+        <v>205.39658139501461</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" si="25"/>
-        <v>6.2105916368591521</v>
+        <v>79.882769302205261</v>
       </c>
       <c r="X23" s="1">
         <f>[1]!HeatTransferArea(H23,I23,0.36,L23)</f>
@@ -4133,75 +4133,75 @@
         <v>19565.76017933507</v>
       </c>
       <c r="Z23" s="1">
+        <f t="shared" si="7"/>
+        <v>33.567703441402969</v>
+      </c>
+      <c r="AA23" s="1">
         <f t="shared" si="8"/>
-        <v>134.27081376561188</v>
-      </c>
-      <c r="AA23" s="1">
+        <v>2661.9699185544869</v>
+      </c>
+      <c r="AB23" s="1">
         <f t="shared" si="9"/>
-        <v>7958.4874652799681</v>
-      </c>
-      <c r="AB23" s="1">
+        <v>21.87753199259911</v>
+      </c>
+      <c r="AC23" s="1">
         <f t="shared" si="10"/>
-        <v>21.997851300457459</v>
-      </c>
-      <c r="AC23" s="1">
+        <v>0.47779157846267512</v>
+      </c>
+      <c r="AD23" s="1">
         <f t="shared" si="11"/>
-        <v>0.47779157846267512</v>
-      </c>
-      <c r="AD23" s="1">
+        <v>237.27077951065817</v>
+      </c>
+      <c r="AE23" s="1">
         <f t="shared" si="12"/>
-        <v>237.27077951065817</v>
-      </c>
-      <c r="AE23" s="1">
+        <v>8.4309895833333339</v>
+      </c>
+      <c r="AF23" s="1">
         <f t="shared" si="13"/>
-        <v>8.4309895833333339</v>
-      </c>
-      <c r="AF23" s="1">
-        <f t="shared" si="14"/>
         <v>5.0514105771106941</v>
       </c>
       <c r="AG23" s="1">
         <v>0.59960000000000002</v>
       </c>
       <c r="AH23" s="1">
+        <f t="shared" si="14"/>
+        <v>0.477791578462675</v>
+      </c>
+      <c r="AI23" s="1">
         <f t="shared" si="15"/>
-        <v>0.477791578462675</v>
-      </c>
-      <c r="AI23" s="1">
+        <v>5.1786583018410877</v>
+      </c>
+      <c r="AJ23" s="1">
         <f t="shared" si="16"/>
-        <v>5.1786583018410877</v>
-      </c>
-      <c r="AJ23" s="1">
+        <v>13.788532866619434</v>
+      </c>
+      <c r="AK23" s="1">
         <f t="shared" si="17"/>
-        <v>13.788532866619434</v>
-      </c>
-      <c r="AK23" s="1">
+        <v>14.135759581181354</v>
+      </c>
+      <c r="AL23" s="1">
         <f t="shared" si="18"/>
-        <v>14.135759581181354</v>
-      </c>
-      <c r="AL23" s="1">
+        <v>2.8236834212113364</v>
+      </c>
+      <c r="AM23" s="1">
         <f t="shared" si="19"/>
-        <v>2.8236834212113364</v>
-      </c>
-      <c r="AM23" s="1">
+        <v>1.6930805793583175</v>
+      </c>
+      <c r="AN23" s="1">
         <f t="shared" si="20"/>
-        <v>1.6930805793583175</v>
-      </c>
-      <c r="AN23" s="1">
+        <v>11.79655068244443</v>
+      </c>
+      <c r="AO23" s="1">
         <f t="shared" si="21"/>
-        <v>11.79655068244443</v>
-      </c>
-      <c r="AO23" s="1">
+        <v>2.7138139396190173E-2</v>
+      </c>
+      <c r="AP23" s="1">
         <f t="shared" si="22"/>
-        <v>2.7287390333170524E-2</v>
-      </c>
-      <c r="AP23" s="1">
-        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="26"/>
-        <v>2.9120475425343042E-2</v>
+        <v>0.37455758748769447</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -4273,16 +4273,16 @@
         <v>0.5</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="7"/>
-        <v>0.44014627731946915</v>
+        <f t="shared" si="23"/>
+        <v>0.11003656932986729</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="24"/>
-        <v>0.48105179886071531</v>
+        <v>164.31726511601167</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="25"/>
-        <v>6.1131786475898569</v>
+        <v>65.094215441764206</v>
       </c>
       <c r="X24" s="1">
         <f>[1]!HeatTransferArea(H24,I24,0.36,L24)</f>
@@ -4293,75 +4293,75 @@
         <v>19493.845795166944</v>
       </c>
       <c r="Z24" s="1">
+        <f t="shared" si="7"/>
+        <v>26.85416275312237</v>
+      </c>
+      <c r="AA24" s="1">
         <f t="shared" si="8"/>
-        <v>107.41665101248948</v>
-      </c>
-      <c r="AA24" s="1">
+        <v>2231.7432667665953</v>
+      </c>
+      <c r="AB24" s="1">
         <f t="shared" si="9"/>
-        <v>6672.2394909442528</v>
-      </c>
-      <c r="AB24" s="1">
+        <v>21.842925382188987</v>
+      </c>
+      <c r="AC24" s="1">
         <f t="shared" si="10"/>
-        <v>21.986136046326394</v>
-      </c>
-      <c r="AC24" s="1">
+        <v>0.49981121028359965</v>
+      </c>
+      <c r="AD24" s="1">
         <f t="shared" si="11"/>
-        <v>0.49981121028359965</v>
-      </c>
-      <c r="AD24" s="1">
+        <v>295.4983568926823</v>
+      </c>
+      <c r="AE24" s="1">
         <f t="shared" si="12"/>
-        <v>295.4983568926823</v>
-      </c>
-      <c r="AE24" s="1">
+        <v>6.7447916666666661</v>
+      </c>
+      <c r="AF24" s="1">
         <f t="shared" si="13"/>
-        <v>6.7447916666666661</v>
-      </c>
-      <c r="AF24" s="1">
-        <f t="shared" si="14"/>
         <v>3.8451139966209</v>
       </c>
       <c r="AG24" s="1">
         <v>0.5706</v>
       </c>
       <c r="AH24" s="1">
+        <f t="shared" si="14"/>
+        <v>0.49981121028359965</v>
+      </c>
+      <c r="AI24" s="1">
         <f t="shared" si="15"/>
-        <v>0.49981121028359965</v>
-      </c>
-      <c r="AI24" s="1">
+        <v>5.023012961425775</v>
+      </c>
+      <c r="AJ24" s="1">
         <f t="shared" si="16"/>
-        <v>5.023012961425775</v>
-      </c>
-      <c r="AJ24" s="1">
+        <v>7.8597492382822329</v>
+      </c>
+      <c r="AK24" s="1">
         <f t="shared" si="17"/>
-        <v>7.8597492382822329</v>
-      </c>
-      <c r="AK24" s="1">
+        <v>8.0131999141322048</v>
+      </c>
+      <c r="AL24" s="1">
         <f t="shared" si="18"/>
-        <v>8.0131999141322048</v>
-      </c>
-      <c r="AL24" s="1">
+        <v>0.45274815851847328</v>
+      </c>
+      <c r="AM24" s="1">
         <f t="shared" si="19"/>
-        <v>0.45274815851847328</v>
-      </c>
-      <c r="AM24" s="1">
+        <v>0.25833809925064083</v>
+      </c>
+      <c r="AN24" s="1">
         <f t="shared" si="20"/>
-        <v>0.25833809925064083</v>
-      </c>
-      <c r="AN24" s="1">
+        <v>7.0280574323244975</v>
+      </c>
+      <c r="AO24" s="1">
         <f t="shared" si="21"/>
-        <v>7.0280574323244975</v>
-      </c>
-      <c r="AO24" s="1">
+        <v>5.4305428529267509E-3</v>
+      </c>
+      <c r="AP24" s="1">
         <f t="shared" si="22"/>
-        <v>5.4661475915314273E-3</v>
-      </c>
-      <c r="AP24" s="1">
-        <f t="shared" si="23"/>
         <v>0.185</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="26"/>
-        <v>5.744910617027304E-3</v>
+        <v>6.1172831836983729E-2</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -4433,16 +4433,16 @@
         <v>0.5</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="7"/>
-        <v>0.77025598530907113</v>
+        <f t="shared" si="23"/>
+        <v>0.19256399632726778</v>
       </c>
       <c r="V25" s="1">
         <f t="shared" si="24"/>
-        <v>1.4732211340109409</v>
+        <v>287.55521395302043</v>
       </c>
       <c r="W25" s="1">
         <f t="shared" si="25"/>
-        <v>6.470359608243939</v>
+        <v>109.45987702308736</v>
       </c>
       <c r="X25" s="1">
         <f>[1]!HeatTransferArea(H25,I25,0.36,L25)</f>
@@ -4453,75 +4453,75 @@
         <v>19694.142440547083</v>
       </c>
       <c r="Z25" s="1">
+        <f t="shared" si="7"/>
+        <v>46.99478481796416</v>
+      </c>
+      <c r="AA25" s="1">
         <f t="shared" si="8"/>
-        <v>187.97913927185664</v>
-      </c>
-      <c r="AA25" s="1">
+        <v>3472.5162891045738</v>
+      </c>
+      <c r="AB25" s="1">
         <f t="shared" si="9"/>
-        <v>10381.776731281119</v>
-      </c>
-      <c r="AB25" s="1">
+        <v>21.919581510047937</v>
+      </c>
+      <c r="AC25" s="1">
         <f t="shared" si="10"/>
-        <v>22.01205311546796</v>
-      </c>
-      <c r="AC25" s="1">
+        <v>0.32597040783234199</v>
+      </c>
+      <c r="AD25" s="1">
         <f t="shared" si="11"/>
-        <v>0.32597040783234199</v>
-      </c>
-      <c r="AD25" s="1">
+        <v>170.59117873820571</v>
+      </c>
+      <c r="AE25" s="1">
         <f t="shared" si="12"/>
-        <v>170.59117873820571</v>
-      </c>
-      <c r="AE25" s="1">
+        <v>11.803385416666666</v>
+      </c>
+      <c r="AF25" s="1">
         <f t="shared" si="13"/>
-        <v>11.803385416666666</v>
-      </c>
-      <c r="AF25" s="1">
-        <f t="shared" si="14"/>
         <v>10.30762628461607</v>
       </c>
       <c r="AG25" s="1">
         <v>0.86329999999999996</v>
       </c>
       <c r="AH25" s="1">
+        <f t="shared" si="14"/>
+        <v>0.32597040783234199</v>
+      </c>
+      <c r="AI25" s="1">
         <f t="shared" si="15"/>
-        <v>0.32597040783234199</v>
-      </c>
-      <c r="AI25" s="1">
+        <v>8.4441799662162165</v>
+      </c>
+      <c r="AJ25" s="1">
         <f t="shared" si="16"/>
-        <v>8.4441799662162165</v>
-      </c>
-      <c r="AJ25" s="1">
+        <v>28.149670028148936</v>
+      </c>
+      <c r="AK25" s="1">
         <f t="shared" si="17"/>
-        <v>28.149670028148936</v>
-      </c>
-      <c r="AK25" s="1">
+        <v>28.633852530369349</v>
+      </c>
+      <c r="AL25" s="1">
         <f t="shared" si="18"/>
-        <v>28.633852530369349</v>
-      </c>
-      <c r="AL25" s="1">
+        <v>0.13359882812591437</v>
+      </c>
+      <c r="AM25" s="1">
         <f t="shared" si="19"/>
-        <v>0.13359882812591437</v>
-      </c>
-      <c r="AM25" s="1">
+        <v>0.11533586832110186</v>
+      </c>
+      <c r="AN25" s="1">
         <f t="shared" si="20"/>
-        <v>0.11533586832110186</v>
-      </c>
-      <c r="AN25" s="1">
+        <v>16.394482495177801</v>
+      </c>
+      <c r="AO25" s="1">
         <f t="shared" si="21"/>
-        <v>16.394482495177801</v>
-      </c>
-      <c r="AO25" s="1">
+        <v>9.1890921914019089E-4</v>
+      </c>
+      <c r="AP25" s="1">
         <f t="shared" si="22"/>
-        <v>9.2278579911459413E-4</v>
-      </c>
-      <c r="AP25" s="1">
-        <f t="shared" si="23"/>
         <v>0.65</v>
       </c>
       <c r="AQ25" s="1">
         <f t="shared" si="26"/>
-        <v>1.0253036760043922E-3</v>
+        <v>1.7345189615700415E-2</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
@@ -4593,16 +4593,16 @@
         <v>0.5</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="7"/>
-        <v>0.8802925546389383</v>
+        <f t="shared" si="23"/>
+        <v>0.22007313865973457</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" si="24"/>
-        <v>1.9242071954428612</v>
+        <v>328.63453023202334</v>
       </c>
       <c r="W26" s="1">
         <f t="shared" si="25"/>
-        <v>6.6327145903594298</v>
+        <v>124.2484308835284</v>
       </c>
       <c r="X26" s="1">
         <f>[1]!HeatTransferArea(H26,I26,0.36,L26)</f>
@@ -4613,75 +4613,75 @@
         <v>19752.723070649943</v>
       </c>
       <c r="Z26" s="1">
+        <f t="shared" si="7"/>
+        <v>53.708325506244741</v>
+      </c>
+      <c r="AA26" s="1">
         <f t="shared" si="8"/>
-        <v>214.83330202497896</v>
-      </c>
-      <c r="AA26" s="1">
+        <v>3858.8502896807245</v>
+      </c>
+      <c r="AB26" s="1">
         <f t="shared" si="9"/>
-        <v>11536.79891224789</v>
-      </c>
-      <c r="AB26" s="1">
+        <v>21.933442676290149</v>
+      </c>
+      <c r="AC26" s="1">
         <f t="shared" si="10"/>
-        <v>22.016726662521915</v>
-      </c>
-      <c r="AC26" s="1">
+        <v>0.37253760895124799</v>
+      </c>
+      <c r="AD26" s="1">
         <f t="shared" si="11"/>
-        <v>0.37253760895124799</v>
-      </c>
-      <c r="AD26" s="1">
+        <v>149.71127998202286</v>
+      </c>
+      <c r="AE26" s="1">
         <f t="shared" si="12"/>
-        <v>149.71127998202286</v>
-      </c>
-      <c r="AE26" s="1">
+        <v>13.489583333333332</v>
+      </c>
+      <c r="AF26" s="1">
         <f t="shared" si="13"/>
-        <v>13.489583333333332</v>
-      </c>
-      <c r="AF26" s="1">
-        <f t="shared" si="14"/>
         <v>10.30762628461607</v>
       </c>
       <c r="AG26" s="1">
         <v>0.76400000000000001</v>
       </c>
       <c r="AH26" s="1">
+        <f t="shared" si="14"/>
+        <v>0.37253760895124799</v>
+      </c>
+      <c r="AI26" s="1">
         <f t="shared" si="15"/>
-        <v>0.37253760895124799</v>
-      </c>
-      <c r="AI26" s="1">
+        <v>9.3772372183476378</v>
+      </c>
+      <c r="AJ26" s="1">
         <f t="shared" si="16"/>
-        <v>9.3772372183476378</v>
-      </c>
-      <c r="AJ26" s="1">
+        <v>28.149670028148936</v>
+      </c>
+      <c r="AK26" s="1">
         <f t="shared" si="17"/>
-        <v>28.149670028148936</v>
-      </c>
-      <c r="AK26" s="1">
+        <v>28.633852530369349</v>
+      </c>
+      <c r="AL26" s="1">
         <f t="shared" si="18"/>
-        <v>28.633852530369349</v>
-      </c>
-      <c r="AL26" s="1">
+        <v>0.12167126531265134</v>
+      </c>
+      <c r="AM26" s="1">
         <f t="shared" si="19"/>
-        <v>0.12167126531265134</v>
-      </c>
-      <c r="AM26" s="1">
+        <v>9.2956846698865628E-2</v>
+      </c>
+      <c r="AN26" s="1">
         <f t="shared" si="20"/>
-        <v>9.2956846698865628E-2</v>
-      </c>
-      <c r="AN26" s="1">
+        <v>18.736551423060344</v>
+      </c>
+      <c r="AO26" s="1">
         <f t="shared" si="21"/>
-        <v>18.736551423060344</v>
-      </c>
-      <c r="AO26" s="1">
+        <v>7.3272428053762755E-4</v>
+      </c>
+      <c r="AP26" s="1">
         <f t="shared" si="22"/>
-        <v>7.3550652497561271E-4</v>
-      </c>
-      <c r="AP26" s="1">
-        <f t="shared" si="23"/>
         <v>0.875</v>
       </c>
       <c r="AQ26" s="1">
         <f t="shared" si="26"/>
-        <v>8.3754631956761835E-4</v>
+        <v>1.5689475942445397E-2</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
